--- a/Basic/list_collection.xlsx
+++ b/Basic/list_collection.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9982" uniqueCount="2600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10241" uniqueCount="2601">
   <si>
     <t xml:space="preserve">IDlist</t>
   </si>
@@ -7217,6 +7217,9 @@
     <t xml:space="preserve">dzehe</t>
   </si>
   <si>
+    <t xml:space="preserve">tepo01</t>
+  </si>
+  <si>
     <t xml:space="preserve">taa</t>
   </si>
   <si>
@@ -7965,7 +7968,7 @@
     <numFmt numFmtId="165" formatCode="000"/>
     <numFmt numFmtId="166" formatCode="#"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -8030,46 +8033,10 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Linux Libertine"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="12"/>
-      <name val="Linux Libertine"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Linux Libertine"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Linux Libertine"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Linux Libertine"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="11"/>
       <name val="Linux Libertine"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8114,7 +8081,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8183,47 +8150,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -25608,4067 +25535,4067 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="7.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="31.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="16.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="12.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="6" style="18" width="11.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="60" style="18" width="11.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1019" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="31.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="16.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="6" style="2" width="11.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="60" style="2" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1019" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="8" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="n">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="4" t="s">
         <v>2136</v>
       </c>
-      <c r="D2" s="20" t="n">
+      <c r="D2" s="3" t="n">
         <v>1637</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="n">
+      <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="4" t="s">
         <v>2138</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="3" t="n">
         <v>1638</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="n">
+      <c r="A5" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="4" t="s">
         <v>2139</v>
       </c>
-      <c r="D5" s="20" t="n">
+      <c r="D5" s="3" t="n">
         <v>1639</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="n">
+      <c r="A6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="C6" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="n">
+      <c r="A7" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="4" t="s">
         <v>2140</v>
       </c>
-      <c r="D7" s="20" t="n">
+      <c r="D7" s="3" t="n">
         <v>1640</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="n">
+      <c r="A8" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="4" t="s">
         <v>2141</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="3" t="n">
         <v>1641</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="2" t="s">
         <v>2142</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="n">
+      <c r="A9" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="4" t="s">
         <v>2143</v>
       </c>
-      <c r="D9" s="20" t="n">
+      <c r="D9" s="3" t="n">
         <v>1642</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="2" t="s">
         <v>2144</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="n">
+      <c r="A10" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="C10" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="n">
+      <c r="A11" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="10" t="s">
         <v>2145</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="D11" s="20" t="n">
+      <c r="D11" s="3" t="n">
         <v>1643</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="n">
+      <c r="A12" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="10" t="s">
         <v>2147</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="4" t="s">
         <v>2148</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="D12" s="3" t="n">
         <v>1644</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="n">
+      <c r="A13" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="4" t="s">
         <v>2149</v>
       </c>
-      <c r="D13" s="20" t="n">
+      <c r="D13" s="3" t="n">
         <v>1645</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="n">
+      <c r="A14" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="4" t="s">
         <v>2150</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="D14" s="3" t="n">
         <v>1646</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="n">
+      <c r="A15" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="4" t="s">
         <v>2151</v>
       </c>
-      <c r="D15" s="20" t="n">
+      <c r="D15" s="3" t="n">
         <v>1647</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="n">
+      <c r="A16" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="4" t="s">
         <v>2152</v>
       </c>
-      <c r="D16" s="20" t="n">
+      <c r="D16" s="3" t="n">
         <v>1648</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="n">
+      <c r="A17" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="4" t="s">
         <v>2153</v>
       </c>
-      <c r="D17" s="20" t="n">
+      <c r="D17" s="3" t="n">
         <v>1649</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25" t="n">
+      <c r="A18" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="4" t="s">
         <v>2138</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="D18" s="3" t="n">
         <v>1650</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="2" t="s">
         <v>2154</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="n">
+      <c r="A19" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="4" t="s">
         <v>2155</v>
       </c>
-      <c r="D19" s="20" t="n">
+      <c r="D19" s="3" t="n">
         <v>1651</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="n">
+      <c r="A20" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="4" t="s">
         <v>2156</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="3" t="n">
         <v>1652</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="n">
+      <c r="A21" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="4" t="s">
         <v>2157</v>
       </c>
-      <c r="D21" s="20" t="n">
+      <c r="D21" s="3" t="n">
         <v>1653</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="n">
+      <c r="A22" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="4" t="s">
         <v>2158</v>
       </c>
-      <c r="D22" s="20" t="n">
+      <c r="D22" s="3" t="n">
         <v>1654</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="n">
+      <c r="A23" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="4" t="s">
         <v>2159</v>
       </c>
-      <c r="D23" s="20" t="n">
+      <c r="D23" s="3" t="n">
         <v>1655</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="n">
+      <c r="A24" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="4" t="s">
         <v>2160</v>
       </c>
-      <c r="D24" s="20" t="n">
+      <c r="D24" s="3" t="n">
         <v>1656</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25" t="n">
+      <c r="A25" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="4" t="s">
         <v>2161</v>
       </c>
-      <c r="D25" s="20" t="n">
+      <c r="D25" s="3" t="n">
         <v>1657</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="25" t="n">
+      <c r="A26" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="4" t="s">
         <v>2162</v>
       </c>
-      <c r="D26" s="20" t="n">
+      <c r="D26" s="3" t="n">
         <v>1658</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25" t="n">
+      <c r="A27" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="4" t="s">
         <v>2163</v>
       </c>
-      <c r="D27" s="20" t="n">
+      <c r="D27" s="3" t="n">
         <v>1659</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="25" t="n">
+      <c r="A28" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="4" t="s">
         <v>2164</v>
       </c>
-      <c r="D28" s="20" t="n">
+      <c r="D28" s="3" t="n">
         <v>1660</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25" t="n">
+      <c r="A29" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="4" t="s">
         <v>2165</v>
       </c>
-      <c r="D29" s="20" t="n">
+      <c r="D29" s="3" t="n">
         <v>1661</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25" t="n">
+      <c r="A30" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="4" t="s">
         <v>2166</v>
       </c>
-      <c r="D30" s="20" t="n">
+      <c r="D30" s="3" t="n">
         <v>1662</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25" t="n">
+      <c r="A31" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="4" t="s">
         <v>2167</v>
       </c>
-      <c r="D31" s="20" t="n">
+      <c r="D31" s="3" t="n">
         <v>1663</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="n">
+      <c r="A32" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="4" t="s">
         <v>2168</v>
       </c>
-      <c r="D32" s="20" t="n">
+      <c r="D32" s="3" t="n">
         <v>1664</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25" t="n">
+      <c r="A33" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="10" t="s">
         <v>2169</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="4" t="s">
         <v>2170</v>
       </c>
-      <c r="D33" s="20" t="n">
+      <c r="D33" s="3" t="n">
         <v>1665</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25" t="n">
+      <c r="A34" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="4" t="s">
         <v>2171</v>
       </c>
-      <c r="D34" s="20" t="n">
+      <c r="D34" s="3" t="n">
         <v>1666</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="n">
+      <c r="A35" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="4" t="s">
         <v>2172</v>
       </c>
-      <c r="D35" s="20" t="n">
+      <c r="D35" s="3" t="n">
         <v>1667</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25" t="n">
+      <c r="A36" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F36" s="18" t="s">
+      <c r="C36" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25" t="n">
+      <c r="A37" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F37" s="18" t="s">
+      <c r="C37" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25" t="n">
+      <c r="A38" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F38" s="18" t="s">
+      <c r="C38" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="25" t="n">
+      <c r="A39" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="4" t="s">
         <v>2173</v>
       </c>
-      <c r="D39" s="20" t="n">
+      <c r="D39" s="3" t="n">
         <v>1668</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25" t="n">
+      <c r="A40" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F40" s="18" t="s">
+      <c r="C40" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25" t="n">
+      <c r="A41" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="4" t="s">
         <v>2174</v>
       </c>
-      <c r="D41" s="20" t="n">
+      <c r="D41" s="3" t="n">
         <v>1669</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="25" t="n">
+      <c r="A42" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="10" t="s">
         <v>2175</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="4" t="s">
         <v>2176</v>
       </c>
-      <c r="D42" s="20" t="n">
+      <c r="D42" s="3" t="n">
         <v>1670</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="n">
+      <c r="A43" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="10" t="s">
         <v>2177</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="4" t="s">
         <v>2178</v>
       </c>
-      <c r="D43" s="20" t="n">
+      <c r="D43" s="3" t="n">
         <v>1671</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="25" t="n">
+      <c r="A44" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F44" s="18" t="s">
+      <c r="C44" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="25" t="n">
+      <c r="A45" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F45" s="18" t="s">
+      <c r="C45" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="25" t="n">
+      <c r="A46" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F46" s="18" t="s">
+      <c r="C46" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25" t="n">
+      <c r="A47" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="4" t="s">
         <v>2179</v>
       </c>
-      <c r="D47" s="20" t="n">
+      <c r="D47" s="3" t="n">
         <v>1672</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25" t="n">
+      <c r="A48" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="10" t="s">
         <v>2180</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="4" t="s">
         <v>2181</v>
       </c>
-      <c r="D48" s="20" t="n">
+      <c r="D48" s="3" t="n">
         <v>1673</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25" t="n">
+      <c r="A49" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="10" t="s">
         <v>2180</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="4" t="s">
         <v>2182</v>
       </c>
-      <c r="D49" s="20" t="n">
+      <c r="D49" s="3" t="n">
         <v>1674</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25" t="n">
+      <c r="A50" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="4" t="s">
         <v>2183</v>
       </c>
-      <c r="D50" s="20" t="n">
+      <c r="D50" s="3" t="n">
         <v>1675</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25" t="n">
+      <c r="A51" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F51" s="18" t="s">
+      <c r="C51" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="25" t="n">
+      <c r="A52" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F52" s="18" t="s">
+      <c r="C52" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="25" t="n">
+      <c r="A53" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F53" s="18" t="s">
+      <c r="C53" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="25" t="n">
+      <c r="A54" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F54" s="18" t="s">
+      <c r="C54" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="25" t="n">
+      <c r="A55" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="4" t="s">
         <v>2184</v>
       </c>
-      <c r="D55" s="20" t="n">
+      <c r="D55" s="3" t="n">
         <v>1676</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="25" t="n">
+      <c r="A56" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="4" t="s">
         <v>2185</v>
       </c>
-      <c r="D56" s="20" t="n">
+      <c r="D56" s="3" t="n">
         <v>1677</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="25" t="n">
+      <c r="A57" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F57" s="18" t="s">
+      <c r="C57" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="25" t="n">
+      <c r="A58" s="9" t="n">
         <v>53</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="10" t="s">
         <v>2186</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="4" t="s">
         <v>2187</v>
       </c>
-      <c r="D58" s="20" t="n">
+      <c r="D58" s="3" t="n">
         <v>1678</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25" t="n">
+      <c r="A59" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="4" t="s">
         <v>2188</v>
       </c>
-      <c r="D59" s="20" t="n">
+      <c r="D59" s="3" t="n">
         <v>1679</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="25" t="n">
+      <c r="A60" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="4" t="s">
         <v>2189</v>
       </c>
-      <c r="D60" s="20" t="n">
+      <c r="D60" s="3" t="n">
         <v>1827</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="25" t="n">
+      <c r="A61" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="4" t="s">
         <v>2190</v>
       </c>
-      <c r="D61" s="20" t="n">
+      <c r="D61" s="3" t="n">
         <v>1680</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="25" t="n">
+      <c r="A62" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F62" s="18" t="s">
+      <c r="C62" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="25" t="n">
+      <c r="A63" s="9" t="n">
         <v>57</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="4" t="s">
         <v>2191</v>
       </c>
-      <c r="D63" s="20" t="n">
+      <c r="D63" s="3" t="n">
         <v>1681</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="25" t="n">
+      <c r="A64" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="4" t="s">
         <v>2192</v>
       </c>
-      <c r="D64" s="20" t="n">
+      <c r="D64" s="3" t="n">
         <v>1682</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="25" t="n">
+      <c r="A65" s="9" t="n">
         <v>59</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="4" t="s">
         <v>2193</v>
       </c>
-      <c r="D65" s="20" t="n">
+      <c r="D65" s="3" t="n">
         <v>1683</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="25" t="n">
+      <c r="A66" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="10" t="s">
         <v>2194</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="4" t="s">
         <v>2195</v>
       </c>
-      <c r="D66" s="20" t="n">
+      <c r="D66" s="3" t="n">
         <v>1684</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="25" t="n">
+      <c r="A67" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="10" t="s">
         <v>2196</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="4" t="s">
         <v>2197</v>
       </c>
-      <c r="D67" s="20" t="n">
+      <c r="D67" s="3" t="n">
         <v>1685</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="25" t="n">
+      <c r="A68" s="9" t="n">
         <v>61</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="4" t="s">
         <v>2198</v>
       </c>
-      <c r="D68" s="20" t="n">
+      <c r="D68" s="3" t="n">
         <v>1686</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="25" t="n">
+      <c r="A69" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="4" t="s">
         <v>2199</v>
       </c>
-      <c r="D69" s="20" t="n">
+      <c r="D69" s="3" t="n">
         <v>1687</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="F69" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="25" t="n">
+      <c r="A70" s="9" t="n">
         <v>63</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="4" t="s">
         <v>2200</v>
       </c>
-      <c r="D70" s="20" t="n">
+      <c r="D70" s="3" t="n">
         <v>1688</v>
       </c>
-      <c r="F70" s="18" t="s">
+      <c r="F70" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="25" t="n">
+      <c r="A71" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F71" s="18" t="s">
+      <c r="C71" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="25" t="n">
+      <c r="A72" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="4" t="s">
         <v>2201</v>
       </c>
-      <c r="D72" s="20" t="n">
+      <c r="D72" s="3" t="n">
         <v>1689</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="25" t="n">
+      <c r="A73" s="9" t="n">
         <v>66</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="4" t="s">
         <v>2202</v>
       </c>
-      <c r="D73" s="20" t="n">
+      <c r="D73" s="3" t="n">
         <v>1690</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="F73" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="25" t="n">
+      <c r="A74" s="9" t="n">
         <v>67</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="4" t="s">
         <v>2203</v>
       </c>
-      <c r="D74" s="20" t="n">
+      <c r="D74" s="3" t="n">
         <v>1691</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="25" t="n">
+      <c r="A75" s="9" t="n">
         <v>68</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="4" t="s">
         <v>2204</v>
       </c>
-      <c r="D75" s="20" t="n">
+      <c r="D75" s="3" t="n">
         <v>1692</v>
       </c>
-      <c r="F75" s="18" t="s">
+      <c r="F75" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="25" t="n">
+      <c r="A76" s="9" t="n">
         <v>69</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="4" t="s">
         <v>2205</v>
       </c>
-      <c r="D76" s="20" t="n">
+      <c r="D76" s="3" t="n">
         <v>1693</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="25" t="n">
+      <c r="A77" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="4" t="s">
         <v>2206</v>
       </c>
-      <c r="D77" s="20" t="n">
+      <c r="D77" s="3" t="n">
         <v>1694</v>
       </c>
-      <c r="F77" s="18" t="s">
+      <c r="F77" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="25" t="n">
+      <c r="A78" s="9" t="n">
         <v>71</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="4" t="s">
         <v>2207</v>
       </c>
-      <c r="D78" s="20" t="n">
+      <c r="D78" s="3" t="n">
         <v>1695</v>
       </c>
-      <c r="F78" s="18" t="s">
+      <c r="F78" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="25" t="n">
+      <c r="A79" s="9" t="n">
         <v>72</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="4" t="s">
         <v>2208</v>
       </c>
-      <c r="D79" s="20" t="n">
+      <c r="D79" s="3" t="n">
         <v>1696</v>
       </c>
-      <c r="F79" s="18" t="s">
+      <c r="F79" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="25" t="n">
+      <c r="A80" s="9" t="n">
         <v>73</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F80" s="18" t="s">
+      <c r="C80" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="25" t="n">
+      <c r="A81" s="9" t="n">
         <v>74</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="10" t="s">
         <v>2209</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="4" t="s">
         <v>2210</v>
       </c>
-      <c r="D81" s="20" t="n">
+      <c r="D81" s="3" t="n">
         <v>1697</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="25" t="n">
+      <c r="A82" s="9" t="n">
         <v>74</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="10" t="s">
         <v>2209</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="4" t="s">
         <v>2211</v>
       </c>
-      <c r="D82" s="20" t="n">
+      <c r="D82" s="3" t="n">
         <v>1698</v>
       </c>
-      <c r="F82" s="18" t="s">
+      <c r="F82" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="25" t="n">
+      <c r="A83" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="4" t="s">
         <v>2212</v>
       </c>
-      <c r="D83" s="20" t="n">
+      <c r="D83" s="3" t="n">
         <v>1699</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="25" t="n">
+      <c r="A84" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="4" t="s">
         <v>2213</v>
       </c>
-      <c r="D84" s="20" t="n">
+      <c r="D84" s="3" t="n">
         <v>1825</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="F84" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="25" t="n">
+      <c r="A85" s="9" t="n">
         <v>76</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="4" t="s">
         <v>2214</v>
       </c>
-      <c r="D85" s="20" t="n">
+      <c r="D85" s="3" t="n">
         <v>1700</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="F85" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="25" t="n">
+      <c r="A86" s="9" t="n">
         <v>77</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="4" t="s">
         <v>2215</v>
       </c>
-      <c r="D86" s="20" t="n">
+      <c r="D86" s="3" t="n">
         <v>1701</v>
       </c>
-      <c r="F86" s="18" t="s">
+      <c r="F86" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="25" t="n">
+      <c r="A87" s="9" t="n">
         <v>78</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="4" t="s">
         <v>2216</v>
       </c>
-      <c r="D87" s="20" t="n">
+      <c r="D87" s="3" t="n">
         <v>1702</v>
       </c>
-      <c r="F87" s="18" t="s">
+      <c r="F87" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="25" t="n">
+      <c r="A88" s="9" t="n">
         <v>79</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="4" t="s">
         <v>2217</v>
       </c>
-      <c r="D88" s="20" t="n">
+      <c r="D88" s="3" t="n">
         <v>1703</v>
       </c>
-      <c r="F88" s="18" t="s">
+      <c r="F88" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="25" t="n">
+      <c r="A89" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="4" t="s">
         <v>2218</v>
       </c>
-      <c r="D89" s="20" t="n">
+      <c r="D89" s="3" t="n">
         <v>1704</v>
       </c>
-      <c r="F89" s="18" t="s">
+      <c r="F89" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="25" t="n">
+      <c r="A90" s="9" t="n">
         <v>81</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="4" t="s">
         <v>2219</v>
       </c>
-      <c r="D90" s="20" t="n">
+      <c r="D90" s="3" t="n">
         <v>1705</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="2" t="s">
         <v>2220</v>
       </c>
-      <c r="F90" s="18" t="s">
+      <c r="F90" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="25" t="n">
+      <c r="A91" s="9" t="n">
         <v>82</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="10" t="s">
         <v>2221</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="4" t="s">
         <v>2222</v>
       </c>
-      <c r="D91" s="20" t="n">
+      <c r="D91" s="3" t="n">
         <v>1706</v>
       </c>
-      <c r="F91" s="18" t="s">
+      <c r="F91" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="25" t="n">
+      <c r="A92" s="9" t="n">
         <v>83</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C92" s="4" t="s">
         <v>2223</v>
       </c>
-      <c r="D92" s="20" t="n">
+      <c r="D92" s="3" t="n">
         <v>1707</v>
       </c>
-      <c r="F92" s="18" t="s">
+      <c r="F92" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="25" t="n">
+      <c r="A93" s="9" t="n">
         <v>84</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C93" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F93" s="18" t="s">
+      <c r="C93" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="25" t="n">
+      <c r="A94" s="9" t="n">
         <v>85</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C94" s="4" t="s">
         <v>2224</v>
       </c>
-      <c r="D94" s="20" t="n">
+      <c r="D94" s="3" t="n">
         <v>1708</v>
       </c>
-      <c r="F94" s="18" t="s">
+      <c r="F94" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="25" t="n">
+      <c r="A95" s="9" t="n">
         <v>86</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="B95" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="4" t="s">
         <v>2225</v>
       </c>
-      <c r="D95" s="20" t="n">
+      <c r="D95" s="3" t="n">
         <v>1709</v>
       </c>
-      <c r="F95" s="18" t="s">
+      <c r="F95" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="25" t="n">
+      <c r="A96" s="9" t="n">
         <v>87</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F96" s="18" t="s">
+      <c r="C96" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="25" t="n">
+      <c r="A97" s="9" t="n">
         <v>88</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F97" s="18" t="s">
+      <c r="C97" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="25" t="n">
+      <c r="A98" s="9" t="n">
         <v>89</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C98" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F98" s="18" t="s">
+      <c r="C98" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="25" t="n">
+      <c r="A99" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F99" s="18" t="s">
+      <c r="C99" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="25" t="n">
+      <c r="A100" s="9" t="n">
         <v>91</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="4" t="s">
         <v>2226</v>
       </c>
-      <c r="D100" s="20" t="n">
+      <c r="D100" s="3" t="n">
         <v>1710</v>
       </c>
-      <c r="F100" s="18" t="s">
+      <c r="F100" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="25" t="n">
+      <c r="A101" s="9" t="n">
         <v>92</v>
       </c>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C101" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F101" s="18" t="s">
+      <c r="C101" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="25" t="n">
+      <c r="A102" s="9" t="n">
         <v>93</v>
       </c>
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C102" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F102" s="18" t="s">
+      <c r="C102" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="25" t="n">
+      <c r="A103" s="9" t="n">
         <v>94</v>
       </c>
-      <c r="B103" s="26" t="s">
+      <c r="B103" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F103" s="18" t="s">
+      <c r="C103" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="25" t="n">
+      <c r="A104" s="9" t="n">
         <v>95</v>
       </c>
-      <c r="B104" s="26" t="s">
+      <c r="B104" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="C104" s="4" t="s">
         <v>2227</v>
       </c>
-      <c r="D104" s="20" t="n">
+      <c r="D104" s="3" t="n">
         <v>1711</v>
       </c>
-      <c r="F104" s="18" t="s">
+      <c r="F104" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="25" t="n">
+      <c r="A105" s="9" t="n">
         <v>96</v>
       </c>
-      <c r="B105" s="26" t="s">
+      <c r="B105" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="4" t="s">
         <v>2228</v>
       </c>
-      <c r="D105" s="20" t="n">
+      <c r="D105" s="3" t="n">
         <v>1712</v>
       </c>
-      <c r="F105" s="18" t="s">
+      <c r="F105" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="25" t="n">
+      <c r="A106" s="9" t="n">
         <v>97</v>
       </c>
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C106" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F106" s="18" t="s">
+      <c r="C106" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="25" t="n">
+      <c r="A107" s="9" t="n">
         <v>98</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="2" t="s">
         <v>2229</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="4" t="s">
         <v>2230</v>
       </c>
-      <c r="D107" s="20" t="n">
+      <c r="D107" s="3" t="n">
         <v>1713</v>
       </c>
-      <c r="F107" s="18" t="s">
+      <c r="F107" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="25" t="n">
+      <c r="A108" s="9" t="n">
         <v>99</v>
       </c>
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C108" s="4" t="s">
         <v>2231</v>
       </c>
-      <c r="D108" s="20" t="n">
+      <c r="D108" s="3" t="n">
         <v>1714</v>
       </c>
-      <c r="F108" s="18" t="s">
+      <c r="F108" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="25" t="n">
+      <c r="A109" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="B109" s="26" t="s">
+      <c r="B109" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="4" t="s">
         <v>2232</v>
       </c>
-      <c r="D109" s="20" t="n">
+      <c r="D109" s="3" t="n">
         <v>1715</v>
       </c>
-      <c r="F109" s="18" t="s">
+      <c r="F109" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="25" t="n">
+      <c r="A110" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="B110" s="26" t="s">
+      <c r="B110" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C110" s="4" t="s">
         <v>2233</v>
       </c>
-      <c r="D110" s="20" t="n">
+      <c r="D110" s="3" t="n">
         <v>1824</v>
       </c>
-      <c r="F110" s="18" t="s">
+      <c r="F110" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="25" t="n">
+      <c r="A111" s="9" t="n">
         <v>101</v>
       </c>
-      <c r="B111" s="26" t="s">
+      <c r="B111" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C111" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F111" s="18" t="s">
+      <c r="C111" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="25" t="n">
+      <c r="A112" s="9" t="n">
         <v>102</v>
       </c>
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C112" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="D112" s="20" t="n">
+      <c r="D112" s="3" t="n">
         <v>1716</v>
       </c>
-      <c r="F112" s="18" t="s">
+      <c r="F112" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="25" t="n">
+      <c r="A113" s="9" t="n">
         <v>103</v>
       </c>
-      <c r="B113" s="26" t="s">
+      <c r="B113" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C113" s="19" t="s">
+      <c r="C113" s="4" t="s">
         <v>2235</v>
       </c>
-      <c r="D113" s="20" t="n">
+      <c r="D113" s="3" t="n">
         <v>1717</v>
       </c>
-      <c r="F113" s="18" t="s">
+      <c r="F113" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="25" t="n">
+      <c r="A114" s="9" t="n">
         <v>104</v>
       </c>
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="10" t="s">
         <v>2236</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="4" t="s">
         <v>2237</v>
       </c>
-      <c r="D114" s="20" t="n">
+      <c r="D114" s="3" t="n">
         <v>1718</v>
       </c>
-      <c r="F114" s="18" t="s">
+      <c r="F114" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="25" t="n">
+      <c r="A115" s="9" t="n">
         <v>104</v>
       </c>
-      <c r="B115" s="26" t="s">
+      <c r="B115" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="C115" s="19" t="s">
+      <c r="C115" s="4" t="s">
         <v>2238</v>
       </c>
-      <c r="D115" s="20" t="n">
+      <c r="D115" s="3" t="n">
         <v>1719</v>
       </c>
-      <c r="F115" s="18" t="s">
+      <c r="F115" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="25" t="n">
+      <c r="A116" s="9" t="n">
         <v>105</v>
       </c>
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="C116" s="19" t="s">
+      <c r="C116" s="4" t="s">
         <v>2239</v>
       </c>
-      <c r="D116" s="20" t="n">
+      <c r="D116" s="3" t="n">
         <v>1720</v>
       </c>
-      <c r="F116" s="18" t="s">
+      <c r="F116" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="25" t="n">
+      <c r="A117" s="9" t="n">
         <v>106</v>
       </c>
-      <c r="B117" s="26" t="s">
+      <c r="B117" s="10" t="s">
         <v>2240</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="C117" s="4" t="s">
         <v>2241</v>
       </c>
-      <c r="D117" s="20" t="n">
+      <c r="D117" s="3" t="n">
         <v>1721</v>
       </c>
-      <c r="F117" s="18" t="s">
+      <c r="F117" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="25" t="n">
+      <c r="A118" s="9" t="n">
         <v>107</v>
       </c>
-      <c r="B118" s="26" t="s">
+      <c r="B118" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C118" s="19" t="s">
+      <c r="C118" s="4" t="s">
         <v>2242</v>
       </c>
-      <c r="D118" s="20" t="n">
+      <c r="D118" s="3" t="n">
         <v>1722</v>
       </c>
-      <c r="F118" s="18" t="s">
+      <c r="F118" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="25" t="n">
+      <c r="A119" s="9" t="n">
         <v>108</v>
       </c>
-      <c r="B119" s="26" t="s">
+      <c r="B119" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C119" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F119" s="18" t="s">
+      <c r="C119" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="25" t="n">
+      <c r="A120" s="9" t="n">
         <v>109</v>
       </c>
-      <c r="B120" s="26" t="s">
+      <c r="B120" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C120" s="4" t="s">
         <v>2243</v>
       </c>
-      <c r="D120" s="20" t="n">
+      <c r="D120" s="3" t="n">
         <v>1723</v>
       </c>
-      <c r="F120" s="18" t="s">
+      <c r="F120" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="25" t="n">
+      <c r="A121" s="9" t="n">
         <v>109</v>
       </c>
-      <c r="B121" s="26" t="s">
+      <c r="B121" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C121" s="4" t="s">
         <v>2244</v>
       </c>
-      <c r="D121" s="20" t="n">
+      <c r="D121" s="3" t="n">
         <v>1826</v>
       </c>
-      <c r="F121" s="18" t="s">
+      <c r="F121" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="25" t="n">
+      <c r="A122" s="9" t="n">
         <v>110</v>
       </c>
-      <c r="B122" s="26" t="s">
+      <c r="B122" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C122" s="4" t="s">
         <v>2245</v>
       </c>
-      <c r="D122" s="20" t="n">
+      <c r="D122" s="3" t="n">
         <v>1724</v>
       </c>
-      <c r="F122" s="18" t="s">
+      <c r="F122" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="25" t="n">
+      <c r="A123" s="9" t="n">
         <v>111</v>
       </c>
-      <c r="B123" s="26" t="s">
+      <c r="B123" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="D123" s="20" t="n">
+      <c r="D123" s="3" t="n">
         <v>1725</v>
       </c>
-      <c r="F123" s="18" t="s">
+      <c r="F123" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="25" t="n">
+      <c r="A124" s="9" t="n">
         <v>111</v>
       </c>
-      <c r="B124" s="26" t="s">
+      <c r="B124" s="10" t="s">
         <v>2247</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="C124" s="4" t="s">
         <v>2248</v>
       </c>
-      <c r="D124" s="20" t="n">
+      <c r="D124" s="3" t="n">
         <v>1726</v>
       </c>
-      <c r="F124" s="18" t="s">
+      <c r="F124" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="25" t="n">
+      <c r="A125" s="9" t="n">
         <v>112</v>
       </c>
-      <c r="B125" s="26" t="s">
+      <c r="B125" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C125" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F125" s="18" t="s">
+      <c r="C125" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="25" t="n">
+      <c r="A126" s="9" t="n">
         <v>113</v>
       </c>
-      <c r="B126" s="26" t="s">
+      <c r="B126" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="C126" s="4" t="s">
         <v>2249</v>
       </c>
-      <c r="D126" s="20" t="n">
+      <c r="D126" s="3" t="n">
         <v>1727</v>
       </c>
-      <c r="F126" s="18" t="s">
+      <c r="F126" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="25" t="n">
+      <c r="A127" s="9" t="n">
         <v>114</v>
       </c>
-      <c r="B127" s="26" t="s">
+      <c r="B127" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="4" t="s">
         <v>2250</v>
       </c>
-      <c r="D127" s="20" t="n">
+      <c r="D127" s="3" t="n">
         <v>1728</v>
       </c>
-      <c r="F127" s="18" t="s">
+      <c r="F127" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="25" t="n">
+      <c r="A128" s="9" t="n">
         <v>115</v>
       </c>
-      <c r="B128" s="26" t="s">
+      <c r="B128" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C128" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F128" s="18" t="s">
+      <c r="C128" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="25" t="n">
+      <c r="A129" s="9" t="n">
         <v>116</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="B129" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="4" t="s">
         <v>2251</v>
       </c>
-      <c r="D129" s="20" t="n">
+      <c r="D129" s="3" t="n">
         <v>1729</v>
       </c>
-      <c r="F129" s="18" t="s">
+      <c r="F129" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="25" t="n">
+      <c r="A130" s="9" t="n">
         <v>117</v>
       </c>
-      <c r="B130" s="26" t="s">
+      <c r="B130" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F130" s="18" t="s">
+      <c r="C130" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="25" t="n">
+      <c r="A131" s="9" t="n">
         <v>118</v>
       </c>
-      <c r="B131" s="26" t="s">
+      <c r="B131" s="10" t="s">
         <v>2252</v>
       </c>
-      <c r="C131" s="19" t="s">
+      <c r="C131" s="4" t="s">
         <v>2253</v>
       </c>
-      <c r="D131" s="20" t="n">
+      <c r="D131" s="3" t="n">
         <v>1730</v>
       </c>
-      <c r="F131" s="18" t="s">
+      <c r="F131" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="25" t="n">
+      <c r="A132" s="9" t="n">
         <v>118</v>
       </c>
-      <c r="B132" s="26" t="s">
+      <c r="B132" s="10" t="s">
         <v>2254</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C132" s="4" t="s">
         <v>2255</v>
       </c>
-      <c r="D132" s="20" t="n">
+      <c r="D132" s="3" t="n">
         <v>1731</v>
       </c>
-      <c r="F132" s="18" t="s">
+      <c r="F132" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="25" t="n">
+      <c r="A133" s="9" t="n">
         <v>119</v>
       </c>
-      <c r="B133" s="26" t="s">
+      <c r="B133" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C133" s="19" t="s">
+      <c r="C133" s="4" t="s">
         <v>2256</v>
       </c>
-      <c r="D133" s="20" t="n">
+      <c r="D133" s="3" t="n">
         <v>1732</v>
       </c>
-      <c r="F133" s="18" t="s">
+      <c r="F133" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="25" t="n">
+      <c r="A134" s="9" t="n">
         <v>120</v>
       </c>
-      <c r="B134" s="26" t="s">
+      <c r="B134" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="4" t="s">
         <v>2257</v>
       </c>
-      <c r="D134" s="20" t="n">
+      <c r="D134" s="3" t="n">
         <v>1733</v>
       </c>
-      <c r="F134" s="18" t="s">
+      <c r="F134" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="25" t="n">
+      <c r="A135" s="9" t="n">
         <v>121</v>
       </c>
-      <c r="B135" s="26" t="s">
+      <c r="B135" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C135" s="19" t="s">
+      <c r="C135" s="4" t="s">
         <v>2258</v>
       </c>
-      <c r="D135" s="20" t="n">
+      <c r="D135" s="3" t="n">
         <v>1734</v>
       </c>
-      <c r="F135" s="18" t="s">
+      <c r="F135" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="25" t="n">
+      <c r="A136" s="9" t="n">
         <v>122</v>
       </c>
-      <c r="B136" s="26" t="s">
+      <c r="B136" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C136" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F136" s="18" t="s">
+      <c r="C136" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="25" t="n">
+      <c r="A137" s="9" t="n">
         <v>123</v>
       </c>
-      <c r="B137" s="26" t="s">
+      <c r="B137" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C137" s="19" t="s">
+      <c r="C137" s="4" t="s">
         <v>2259</v>
       </c>
-      <c r="D137" s="20" t="n">
+      <c r="D137" s="3" t="n">
         <v>1735</v>
       </c>
-      <c r="F137" s="18" t="s">
+      <c r="F137" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="25" t="n">
+      <c r="A138" s="9" t="n">
         <v>124</v>
       </c>
-      <c r="B138" s="26" t="s">
+      <c r="B138" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C138" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F138" s="18" t="s">
+      <c r="C138" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="25" t="n">
+      <c r="A139" s="9" t="n">
         <v>125</v>
       </c>
-      <c r="B139" s="26" t="s">
+      <c r="B139" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C139" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F139" s="18" t="s">
+      <c r="C139" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="25" t="n">
+      <c r="A140" s="9" t="n">
         <v>126</v>
       </c>
-      <c r="B140" s="26" t="s">
+      <c r="B140" s="10" t="s">
         <v>2260</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C140" s="4" t="s">
         <v>2261</v>
       </c>
-      <c r="D140" s="20" t="n">
+      <c r="D140" s="3" t="n">
         <v>1736</v>
       </c>
-      <c r="F140" s="18" t="s">
+      <c r="F140" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="25" t="n">
+      <c r="A141" s="9" t="n">
         <v>127</v>
       </c>
-      <c r="B141" s="26" t="s">
+      <c r="B141" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C141" s="19" t="s">
+      <c r="C141" s="4" t="s">
         <v>2262</v>
       </c>
-      <c r="D141" s="20" t="n">
+      <c r="D141" s="3" t="n">
         <v>1737</v>
       </c>
-      <c r="F141" s="18" t="s">
+      <c r="F141" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="25" t="n">
+      <c r="A142" s="9" t="n">
         <v>128</v>
       </c>
-      <c r="B142" s="26" t="s">
+      <c r="B142" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C142" s="4" t="s">
         <v>2263</v>
       </c>
-      <c r="D142" s="20" t="n">
+      <c r="D142" s="3" t="n">
         <v>1738</v>
       </c>
-      <c r="F142" s="18" t="s">
+      <c r="F142" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="25" t="n">
+      <c r="A143" s="9" t="n">
         <v>129</v>
       </c>
-      <c r="B143" s="26" t="s">
+      <c r="B143" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C143" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F143" s="18" t="s">
+      <c r="C143" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="25" t="n">
+      <c r="A144" s="9" t="n">
         <v>130</v>
       </c>
-      <c r="B144" s="26" t="s">
+      <c r="B144" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="C144" s="19" t="s">
+      <c r="C144" s="4" t="s">
         <v>2264</v>
       </c>
-      <c r="D144" s="20" t="n">
+      <c r="D144" s="3" t="n">
         <v>1739</v>
       </c>
-      <c r="F144" s="18" t="s">
+      <c r="F144" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="25" t="n">
+      <c r="A145" s="9" t="n">
         <v>131</v>
       </c>
-      <c r="B145" s="26" t="s">
+      <c r="B145" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C145" s="19" t="s">
+      <c r="C145" s="4" t="s">
         <v>2265</v>
       </c>
-      <c r="D145" s="20" t="n">
+      <c r="D145" s="3" t="n">
         <v>1740</v>
       </c>
-      <c r="F145" s="18" t="s">
+      <c r="F145" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="25" t="n">
+      <c r="A146" s="9" t="n">
         <v>132</v>
       </c>
-      <c r="B146" s="26" t="s">
+      <c r="B146" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C146" s="19" t="s">
+      <c r="C146" s="4" t="s">
         <v>2266</v>
       </c>
-      <c r="D146" s="20" t="n">
+      <c r="D146" s="3" t="n">
         <v>1741</v>
       </c>
-      <c r="F146" s="18" t="s">
+      <c r="F146" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="25" t="n">
+      <c r="A147" s="9" t="n">
         <v>133</v>
       </c>
-      <c r="B147" s="26" t="s">
+      <c r="B147" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C147" s="19" t="s">
+      <c r="C147" s="4" t="s">
         <v>2267</v>
       </c>
-      <c r="D147" s="20" t="n">
+      <c r="D147" s="3" t="n">
         <v>1742</v>
       </c>
-      <c r="F147" s="18" t="s">
+      <c r="F147" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="25" t="n">
+      <c r="A148" s="9" t="n">
         <v>133</v>
       </c>
-      <c r="B148" s="26" t="s">
+      <c r="B148" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C148" s="19" t="s">
+      <c r="C148" s="4" t="s">
         <v>2268</v>
       </c>
-      <c r="D148" s="20" t="n">
+      <c r="D148" s="3" t="n">
         <v>1743</v>
       </c>
-      <c r="F148" s="18" t="s">
+      <c r="F148" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="25" t="n">
+      <c r="A149" s="9" t="n">
         <v>134</v>
       </c>
-      <c r="B149" s="26" t="s">
+      <c r="B149" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C149" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="D149" s="20" t="n">
+      <c r="C149" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D149" s="3" t="n">
         <v>1744</v>
       </c>
-      <c r="F149" s="18" t="s">
+      <c r="F149" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="25" t="n">
+      <c r="A150" s="9" t="n">
         <v>135</v>
       </c>
-      <c r="B150" s="26" t="s">
+      <c r="B150" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C150" s="19" t="s">
+      <c r="C150" s="4" t="s">
         <v>2269</v>
       </c>
-      <c r="D150" s="20" t="n">
+      <c r="D150" s="3" t="n">
         <v>1745</v>
       </c>
-      <c r="F150" s="18" t="s">
+      <c r="F150" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="25" t="n">
+      <c r="A151" s="9" t="n">
         <v>136</v>
       </c>
-      <c r="B151" s="26" t="s">
+      <c r="B151" s="10" t="s">
         <v>2270</v>
       </c>
-      <c r="C151" s="19" t="s">
+      <c r="C151" s="4" t="s">
         <v>2271</v>
       </c>
-      <c r="D151" s="20" t="n">
+      <c r="D151" s="3" t="n">
         <v>1746</v>
       </c>
-      <c r="F151" s="18" t="s">
+      <c r="F151" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="25" t="n">
+      <c r="A152" s="9" t="n">
         <v>136</v>
       </c>
-      <c r="B152" s="26" t="s">
+      <c r="B152" s="10" t="s">
         <v>2272</v>
       </c>
-      <c r="C152" s="19" t="s">
+      <c r="C152" s="4" t="s">
         <v>2273</v>
       </c>
-      <c r="D152" s="20" t="n">
+      <c r="D152" s="3" t="n">
         <v>1747</v>
       </c>
-      <c r="F152" s="18" t="s">
+      <c r="F152" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="25" t="n">
+      <c r="A153" s="9" t="n">
         <v>137</v>
       </c>
-      <c r="B153" s="26" t="s">
+      <c r="B153" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C153" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F153" s="18" t="s">
+      <c r="C153" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="25" t="n">
+      <c r="A154" s="9" t="n">
         <v>138</v>
       </c>
-      <c r="B154" s="26" t="s">
+      <c r="B154" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C154" s="19" t="s">
+      <c r="C154" s="4" t="s">
         <v>2274</v>
       </c>
-      <c r="D154" s="20" t="n">
+      <c r="D154" s="3" t="n">
         <v>1748</v>
       </c>
-      <c r="F154" s="18" t="s">
+      <c r="F154" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="25" t="n">
+      <c r="A155" s="9" t="n">
         <v>139</v>
       </c>
-      <c r="B155" s="26" t="s">
+      <c r="B155" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C155" s="19" t="s">
+      <c r="C155" s="4" t="s">
         <v>2275</v>
       </c>
-      <c r="D155" s="20" t="n">
+      <c r="D155" s="3" t="n">
         <v>1749</v>
       </c>
-      <c r="F155" s="18" t="s">
+      <c r="F155" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="25" t="n">
+      <c r="A156" s="9" t="n">
         <v>140</v>
       </c>
-      <c r="B156" s="26" t="s">
+      <c r="B156" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C156" s="19" t="s">
+      <c r="C156" s="4" t="s">
         <v>2276</v>
       </c>
-      <c r="D156" s="20" t="n">
+      <c r="D156" s="3" t="n">
         <v>1750</v>
       </c>
-      <c r="F156" s="18" t="s">
+      <c r="F156" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="25" t="n">
+      <c r="A157" s="9" t="n">
         <v>141</v>
       </c>
-      <c r="B157" s="26" t="s">
+      <c r="B157" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C157" s="19" t="s">
+      <c r="C157" s="4" t="s">
         <v>2277</v>
       </c>
-      <c r="D157" s="20" t="n">
+      <c r="D157" s="3" t="n">
         <v>1751</v>
       </c>
-      <c r="F157" s="18" t="s">
+      <c r="F157" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="25" t="n">
+      <c r="A158" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="B158" s="26" t="s">
+      <c r="B158" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="C158" s="19" t="s">
+      <c r="C158" s="4" t="s">
         <v>2278</v>
       </c>
-      <c r="D158" s="20" t="n">
+      <c r="D158" s="3" t="n">
         <v>1752</v>
       </c>
-      <c r="F158" s="18" t="s">
+      <c r="F158" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="25" t="n">
+      <c r="A159" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="B159" s="26" t="s">
+      <c r="B159" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="C159" s="19" t="s">
+      <c r="C159" s="4" t="s">
         <v>2279</v>
       </c>
-      <c r="D159" s="20" t="n">
+      <c r="D159" s="3" t="n">
         <v>1753</v>
       </c>
-      <c r="F159" s="18" t="s">
+      <c r="F159" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="25" t="n">
+      <c r="A160" s="9" t="n">
         <v>143</v>
       </c>
-      <c r="B160" s="26" t="s">
+      <c r="B160" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C160" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F160" s="18" t="s">
+      <c r="C160" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="25" t="n">
+      <c r="A161" s="9" t="n">
         <v>144</v>
       </c>
-      <c r="B161" s="26" t="s">
+      <c r="B161" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C161" s="19" t="s">
+      <c r="C161" s="4" t="s">
         <v>2280</v>
       </c>
-      <c r="D161" s="20" t="n">
+      <c r="D161" s="3" t="n">
         <v>1754</v>
       </c>
-      <c r="F161" s="18" t="s">
+      <c r="F161" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="25" t="n">
+      <c r="A162" s="9" t="n">
         <v>145</v>
       </c>
-      <c r="B162" s="26" t="s">
+      <c r="B162" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C162" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F162" s="18" t="s">
+      <c r="C162" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="25" t="n">
+      <c r="A163" s="9" t="n">
         <v>146</v>
       </c>
-      <c r="B163" s="26" t="s">
+      <c r="B163" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C163" s="19" t="s">
+      <c r="C163" s="4" t="s">
         <v>2281</v>
       </c>
-      <c r="D163" s="20" t="n">
+      <c r="D163" s="3" t="n">
         <v>1755</v>
       </c>
-      <c r="F163" s="18" t="s">
+      <c r="F163" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="25" t="n">
+      <c r="A164" s="9" t="n">
         <v>147</v>
       </c>
-      <c r="B164" s="26" t="s">
+      <c r="B164" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C164" s="19" t="s">
+      <c r="C164" s="4" t="s">
         <v>2282</v>
       </c>
-      <c r="D164" s="20" t="n">
+      <c r="D164" s="3" t="n">
         <v>1756</v>
       </c>
-      <c r="F164" s="18" t="s">
+      <c r="F164" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="25" t="n">
+      <c r="A165" s="9" t="n">
         <v>148</v>
       </c>
-      <c r="B165" s="26" t="s">
+      <c r="B165" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C165" s="19" t="s">
+      <c r="C165" s="4" t="s">
         <v>2283</v>
       </c>
-      <c r="D165" s="20" t="n">
+      <c r="D165" s="3" t="n">
         <v>1757</v>
       </c>
-      <c r="F165" s="18" t="s">
+      <c r="F165" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="25" t="n">
+      <c r="A166" s="9" t="n">
         <v>149</v>
       </c>
-      <c r="B166" s="26" t="s">
+      <c r="B166" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C166" s="19" t="s">
+      <c r="C166" s="4" t="s">
         <v>2284</v>
       </c>
-      <c r="D166" s="20" t="n">
+      <c r="D166" s="3" t="n">
         <v>1758</v>
       </c>
-      <c r="F166" s="18" t="s">
+      <c r="F166" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="25" t="n">
+      <c r="A167" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="B167" s="26" t="s">
+      <c r="B167" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C167" s="19" t="s">
+      <c r="C167" s="4" t="s">
         <v>2285</v>
       </c>
-      <c r="D167" s="20" t="n">
+      <c r="D167" s="3" t="n">
         <v>1759</v>
       </c>
-      <c r="F167" s="18" t="s">
+      <c r="F167" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="25" t="n">
+      <c r="A168" s="9" t="n">
         <v>151</v>
       </c>
-      <c r="B168" s="26" t="s">
+      <c r="B168" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C168" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F168" s="18" t="s">
+      <c r="C168" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="25" t="n">
+      <c r="A169" s="9" t="n">
         <v>152</v>
       </c>
-      <c r="B169" s="26" t="s">
+      <c r="B169" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C169" s="19" t="s">
+      <c r="C169" s="4" t="s">
         <v>2286</v>
       </c>
-      <c r="D169" s="20" t="n">
+      <c r="D169" s="3" t="n">
         <v>1760</v>
       </c>
-      <c r="F169" s="18" t="s">
+      <c r="F169" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="25" t="n">
+      <c r="A170" s="9" t="n">
         <v>152</v>
       </c>
-      <c r="B170" s="26" t="s">
+      <c r="B170" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C170" s="19" t="s">
+      <c r="C170" s="4" t="s">
         <v>2287</v>
       </c>
-      <c r="D170" s="20" t="n">
+      <c r="D170" s="3" t="n">
         <v>1761</v>
       </c>
-      <c r="F170" s="18" t="s">
+      <c r="F170" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="25" t="n">
+      <c r="A171" s="9" t="n">
         <v>153</v>
       </c>
-      <c r="B171" s="26" t="s">
+      <c r="B171" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="4" t="s">
         <v>2288</v>
       </c>
-      <c r="D171" s="20" t="n">
+      <c r="D171" s="3" t="n">
         <v>1762</v>
       </c>
-      <c r="F171" s="18" t="s">
+      <c r="F171" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="25" t="n">
+      <c r="A172" s="9" t="n">
         <v>154</v>
       </c>
-      <c r="B172" s="26" t="s">
+      <c r="B172" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C172" s="19" t="s">
+      <c r="C172" s="4" t="s">
         <v>2289</v>
       </c>
-      <c r="D172" s="20" t="n">
+      <c r="D172" s="3" t="n">
         <v>1763</v>
       </c>
-      <c r="F172" s="18" t="s">
+      <c r="F172" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="25" t="n">
+      <c r="A173" s="9" t="n">
         <v>155</v>
       </c>
-      <c r="B173" s="26" t="s">
+      <c r="B173" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C173" s="19" t="s">
+      <c r="C173" s="4" t="s">
         <v>2290</v>
       </c>
-      <c r="D173" s="20" t="n">
+      <c r="D173" s="3" t="n">
         <v>1764</v>
       </c>
-      <c r="F173" s="18" t="s">
+      <c r="F173" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="25" t="n">
+      <c r="A174" s="9" t="n">
         <v>155</v>
       </c>
-      <c r="B174" s="26" t="s">
+      <c r="B174" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C174" s="19" t="s">
+      <c r="C174" s="4" t="s">
         <v>2291</v>
       </c>
-      <c r="D174" s="20" t="n">
+      <c r="D174" s="3" t="n">
         <v>1765</v>
       </c>
-      <c r="F174" s="18" t="s">
+      <c r="F174" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="25" t="n">
+      <c r="A175" s="9" t="n">
         <v>156</v>
       </c>
-      <c r="B175" s="26" t="s">
+      <c r="B175" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C175" s="19" t="s">
+      <c r="C175" s="4" t="s">
         <v>2292</v>
       </c>
-      <c r="D175" s="20" t="n">
+      <c r="D175" s="3" t="n">
         <v>1766</v>
       </c>
-      <c r="F175" s="18" t="s">
+      <c r="F175" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="25" t="n">
+      <c r="A176" s="9" t="n">
         <v>157</v>
       </c>
-      <c r="B176" s="26" t="s">
+      <c r="B176" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C176" s="19" t="s">
+      <c r="C176" s="4" t="s">
         <v>2293</v>
       </c>
-      <c r="D176" s="20" t="n">
+      <c r="D176" s="3" t="n">
         <v>1767</v>
       </c>
-      <c r="F176" s="18" t="s">
+      <c r="F176" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="25" t="n">
+      <c r="A177" s="9" t="n">
         <v>158</v>
       </c>
-      <c r="B177" s="26" t="s">
+      <c r="B177" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C177" s="19" t="s">
+      <c r="C177" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="D177" s="20" t="n">
+      <c r="D177" s="3" t="n">
         <v>1768</v>
       </c>
-      <c r="E177" s="18" t="s">
+      <c r="E177" s="2" t="s">
         <v>2295</v>
       </c>
-      <c r="F177" s="18" t="s">
+      <c r="F177" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="25" t="n">
+      <c r="A178" s="9" t="n">
         <v>158</v>
       </c>
-      <c r="B178" s="26" t="s">
+      <c r="B178" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C178" s="19" t="s">
+      <c r="C178" s="4" t="s">
         <v>2296</v>
       </c>
-      <c r="D178" s="20" t="n">
+      <c r="D178" s="3" t="n">
         <v>1769</v>
       </c>
-      <c r="E178" s="18" t="s">
+      <c r="E178" s="2" t="s">
         <v>2297</v>
       </c>
-      <c r="F178" s="18" t="s">
+      <c r="F178" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="25" t="n">
+      <c r="A179" s="9" t="n">
         <v>159</v>
       </c>
-      <c r="B179" s="26" t="s">
+      <c r="B179" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C179" s="19" t="s">
+      <c r="C179" s="4" t="s">
         <v>2298</v>
       </c>
-      <c r="D179" s="20" t="n">
+      <c r="D179" s="3" t="n">
         <v>1770</v>
       </c>
-      <c r="E179" s="18" t="s">
+      <c r="E179" s="2" t="s">
         <v>2295</v>
       </c>
-      <c r="F179" s="18" t="s">
+      <c r="F179" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="25" t="n">
+      <c r="A180" s="9" t="n">
         <v>159</v>
       </c>
-      <c r="B180" s="26" t="s">
+      <c r="B180" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C180" s="19" t="s">
+      <c r="C180" s="4" t="s">
         <v>2299</v>
       </c>
-      <c r="D180" s="20" t="n">
+      <c r="D180" s="3" t="n">
         <v>1771</v>
       </c>
-      <c r="E180" s="18" t="s">
+      <c r="E180" s="2" t="s">
         <v>2297</v>
       </c>
-      <c r="F180" s="18" t="s">
+      <c r="F180" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="25" t="n">
+      <c r="A181" s="9" t="n">
         <v>160</v>
       </c>
-      <c r="B181" s="26" t="s">
+      <c r="B181" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C181" s="19" t="s">
+      <c r="C181" s="4" t="s">
         <v>2300</v>
       </c>
-      <c r="D181" s="20" t="n">
+      <c r="D181" s="3" t="n">
         <v>1772</v>
       </c>
-      <c r="E181" s="18" t="s">
+      <c r="E181" s="2" t="s">
         <v>2297</v>
       </c>
-      <c r="F181" s="18" t="s">
+      <c r="F181" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="25" t="n">
+      <c r="A182" s="9" t="n">
         <v>161</v>
       </c>
-      <c r="B182" s="26" t="s">
+      <c r="B182" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C182" s="19" t="s">
+      <c r="C182" s="4" t="s">
         <v>2301</v>
       </c>
-      <c r="D182" s="20" t="n">
+      <c r="D182" s="3" t="n">
         <v>1773</v>
       </c>
-      <c r="E182" s="18" t="s">
+      <c r="E182" s="2" t="s">
         <v>2295</v>
       </c>
-      <c r="F182" s="18" t="s">
+      <c r="F182" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="25" t="n">
+      <c r="A183" s="9" t="n">
         <v>161</v>
       </c>
-      <c r="B183" s="26" t="s">
+      <c r="B183" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C183" s="19" t="s">
+      <c r="C183" s="4" t="s">
         <v>2302</v>
       </c>
-      <c r="D183" s="20" t="n">
+      <c r="D183" s="3" t="n">
         <v>1774</v>
       </c>
-      <c r="E183" s="18" t="s">
+      <c r="E183" s="2" t="s">
         <v>2295</v>
       </c>
-      <c r="F183" s="18" t="s">
+      <c r="F183" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="25" t="n">
+      <c r="A184" s="9" t="n">
         <v>161</v>
       </c>
-      <c r="B184" s="26" t="s">
+      <c r="B184" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C184" s="19" t="s">
+      <c r="C184" s="4" t="s">
         <v>2303</v>
       </c>
-      <c r="D184" s="20" t="n">
+      <c r="D184" s="3" t="n">
         <v>1775</v>
       </c>
-      <c r="E184" s="18" t="s">
+      <c r="E184" s="2" t="s">
         <v>2297</v>
       </c>
-      <c r="F184" s="18" t="s">
+      <c r="F184" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="25" t="n">
+      <c r="A185" s="9" t="n">
         <v>162</v>
       </c>
-      <c r="B185" s="26" t="s">
+      <c r="B185" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C185" s="19" t="s">
+      <c r="C185" s="4" t="s">
         <v>2304</v>
       </c>
-      <c r="D185" s="20" t="n">
+      <c r="D185" s="3" t="n">
         <v>1776</v>
       </c>
-      <c r="E185" s="18" t="s">
+      <c r="E185" s="2" t="s">
         <v>2297</v>
       </c>
-      <c r="F185" s="18" t="s">
+      <c r="F185" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="25" t="n">
+      <c r="A186" s="9" t="n">
         <v>163</v>
       </c>
-      <c r="B186" s="26" t="s">
+      <c r="B186" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C186" s="19" t="s">
+      <c r="C186" s="4" t="s">
         <v>2305</v>
       </c>
-      <c r="D186" s="20" t="n">
+      <c r="D186" s="3" t="n">
         <v>1777</v>
       </c>
-      <c r="E186" s="18" t="s">
+      <c r="E186" s="2" t="s">
         <v>2306</v>
       </c>
-      <c r="F186" s="18" t="s">
+      <c r="F186" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="25" t="n">
+      <c r="A187" s="9" t="n">
         <v>164</v>
       </c>
-      <c r="B187" s="26" t="s">
+      <c r="B187" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C187" s="19" t="s">
+      <c r="C187" s="4" t="s">
         <v>2307</v>
       </c>
-      <c r="D187" s="20" t="n">
+      <c r="D187" s="3" t="n">
         <v>1778</v>
       </c>
-      <c r="E187" s="18" t="s">
+      <c r="E187" s="2" t="s">
         <v>2297</v>
       </c>
-      <c r="F187" s="18" t="s">
+      <c r="F187" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="25" t="n">
+      <c r="A188" s="9" t="n">
         <v>164</v>
       </c>
-      <c r="B188" s="26" t="s">
+      <c r="B188" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C188" s="19" t="s">
+      <c r="C188" s="4" t="s">
         <v>2308</v>
       </c>
-      <c r="D188" s="20" t="n">
+      <c r="D188" s="3" t="n">
         <v>1779</v>
       </c>
-      <c r="E188" s="18" t="s">
+      <c r="E188" s="2" t="s">
         <v>2295</v>
       </c>
-      <c r="F188" s="18" t="s">
+      <c r="F188" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="25" t="n">
+      <c r="A189" s="9" t="n">
         <v>165</v>
       </c>
-      <c r="B189" s="26" t="s">
+      <c r="B189" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C189" s="19" t="s">
+      <c r="C189" s="4" t="s">
         <v>2309</v>
       </c>
-      <c r="D189" s="20" t="n">
+      <c r="D189" s="3" t="n">
         <v>1780</v>
       </c>
-      <c r="E189" s="18" t="s">
+      <c r="E189" s="2" t="s">
         <v>2297</v>
       </c>
-      <c r="F189" s="18" t="s">
+      <c r="F189" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="25" t="n">
+      <c r="A190" s="9" t="n">
         <v>165</v>
       </c>
-      <c r="B190" s="26" t="s">
+      <c r="B190" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C190" s="19" t="s">
+      <c r="C190" s="4" t="s">
         <v>2310</v>
       </c>
-      <c r="D190" s="20" t="n">
+      <c r="D190" s="3" t="n">
         <v>1781</v>
       </c>
-      <c r="E190" s="18" t="s">
+      <c r="E190" s="2" t="s">
         <v>2295</v>
       </c>
-      <c r="F190" s="18" t="s">
+      <c r="F190" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="25" t="n">
+      <c r="A191" s="9" t="n">
         <v>166</v>
       </c>
-      <c r="B191" s="26" t="s">
+      <c r="B191" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C191" s="19" t="s">
+      <c r="C191" s="4" t="s">
         <v>2311</v>
       </c>
-      <c r="D191" s="20" t="n">
+      <c r="D191" s="3" t="n">
         <v>1782</v>
       </c>
-      <c r="E191" s="18" t="s">
+      <c r="E191" s="2" t="s">
         <v>2297</v>
       </c>
-      <c r="F191" s="18" t="s">
+      <c r="F191" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="25" t="n">
+      <c r="A192" s="9" t="n">
         <v>166</v>
       </c>
-      <c r="B192" s="26" t="s">
+      <c r="B192" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C192" s="19" t="s">
+      <c r="C192" s="4" t="s">
         <v>2312</v>
       </c>
-      <c r="D192" s="20" t="n">
+      <c r="D192" s="3" t="n">
         <v>1783</v>
       </c>
-      <c r="E192" s="18" t="s">
+      <c r="E192" s="2" t="s">
         <v>2295</v>
       </c>
-      <c r="F192" s="18" t="s">
+      <c r="F192" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="25" t="n">
+      <c r="A193" s="9" t="n">
         <v>167</v>
       </c>
-      <c r="B193" s="26" t="s">
+      <c r="B193" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C193" s="19" t="s">
+      <c r="C193" s="4" t="s">
         <v>2313</v>
       </c>
-      <c r="D193" s="20" t="n">
+      <c r="D193" s="3" t="n">
         <v>1784</v>
       </c>
-      <c r="E193" s="18" t="s">
+      <c r="E193" s="2" t="s">
         <v>2297</v>
       </c>
-      <c r="F193" s="18" t="s">
+      <c r="F193" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="25" t="n">
+      <c r="A194" s="9" t="n">
         <v>167</v>
       </c>
-      <c r="B194" s="26" t="s">
+      <c r="B194" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C194" s="19" t="s">
+      <c r="C194" s="4" t="s">
         <v>2314</v>
       </c>
-      <c r="D194" s="20" t="n">
+      <c r="D194" s="3" t="n">
         <v>1785</v>
       </c>
-      <c r="E194" s="18" t="s">
+      <c r="E194" s="2" t="s">
         <v>2295</v>
       </c>
-      <c r="F194" s="18" t="s">
+      <c r="F194" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="25" t="n">
+      <c r="A195" s="9" t="n">
         <v>168</v>
       </c>
-      <c r="B195" s="26" t="s">
+      <c r="B195" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C195" s="19" t="s">
+      <c r="C195" s="4" t="s">
         <v>2315</v>
       </c>
-      <c r="D195" s="20" t="n">
+      <c r="D195" s="3" t="n">
         <v>1786</v>
       </c>
-      <c r="E195" s="18" t="s">
+      <c r="E195" s="2" t="s">
         <v>2297</v>
       </c>
-      <c r="F195" s="18" t="s">
+      <c r="F195" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="25" t="n">
+      <c r="A196" s="9" t="n">
         <v>168</v>
       </c>
-      <c r="B196" s="26" t="s">
+      <c r="B196" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C196" s="19" t="s">
+      <c r="C196" s="4" t="s">
         <v>2259</v>
       </c>
-      <c r="D196" s="20" t="n">
+      <c r="D196" s="3" t="n">
         <v>1787</v>
       </c>
-      <c r="E196" s="18" t="s">
+      <c r="E196" s="2" t="s">
         <v>2295</v>
       </c>
-      <c r="F196" s="18" t="s">
+      <c r="F196" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="25" t="n">
+      <c r="A197" s="9" t="n">
         <v>169</v>
       </c>
-      <c r="B197" s="26" t="s">
+      <c r="B197" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C197" s="19" t="s">
+      <c r="C197" s="4" t="s">
         <v>2316</v>
       </c>
-      <c r="D197" s="20" t="n">
+      <c r="D197" s="3" t="n">
         <v>1788</v>
       </c>
-      <c r="F197" s="18" t="s">
+      <c r="F197" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="25" t="n">
+      <c r="A198" s="9" t="n">
         <v>170</v>
       </c>
-      <c r="B198" s="26" t="s">
+      <c r="B198" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C198" s="19" t="s">
+      <c r="C198" s="4" t="s">
         <v>2317</v>
       </c>
-      <c r="D198" s="20" t="n">
+      <c r="D198" s="3" t="n">
         <v>1789</v>
       </c>
-      <c r="F198" s="18" t="s">
+      <c r="F198" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="25" t="n">
+      <c r="A199" s="9" t="n">
         <v>171</v>
       </c>
-      <c r="B199" s="26" t="s">
+      <c r="B199" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C199" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F199" s="18" t="s">
+      <c r="C199" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="25" t="n">
+      <c r="A200" s="9" t="n">
         <v>172</v>
       </c>
-      <c r="B200" s="26" t="s">
+      <c r="B200" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="C200" s="19" t="s">
+      <c r="C200" s="4" t="s">
         <v>2318</v>
       </c>
-      <c r="D200" s="20" t="n">
+      <c r="D200" s="3" t="n">
         <v>1790</v>
       </c>
-      <c r="F200" s="18" t="s">
+      <c r="F200" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="25" t="n">
+      <c r="A201" s="9" t="n">
         <v>172</v>
       </c>
-      <c r="B201" s="26" t="s">
+      <c r="B201" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="C201" s="19" t="s">
+      <c r="C201" s="4" t="s">
         <v>2319</v>
       </c>
-      <c r="D201" s="20" t="n">
+      <c r="D201" s="3" t="n">
         <v>1791</v>
       </c>
-      <c r="F201" s="18" t="s">
+      <c r="F201" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="25" t="n">
+      <c r="A202" s="9" t="n">
         <v>173</v>
       </c>
-      <c r="B202" s="26" t="s">
+      <c r="B202" s="10" t="s">
         <v>2320</v>
       </c>
-      <c r="C202" s="19" t="s">
+      <c r="C202" s="4" t="s">
         <v>2321</v>
       </c>
-      <c r="D202" s="20" t="n">
+      <c r="D202" s="3" t="n">
         <v>1792</v>
       </c>
-      <c r="F202" s="18" t="s">
+      <c r="F202" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="25" t="n">
+      <c r="A203" s="9" t="n">
         <v>174</v>
       </c>
-      <c r="B203" s="26" t="s">
+      <c r="B203" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C203" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F203" s="18" t="s">
+      <c r="C203" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="25" t="n">
+      <c r="A204" s="9" t="n">
         <v>175</v>
       </c>
-      <c r="B204" s="26" t="s">
+      <c r="B204" s="10" t="s">
         <v>2322</v>
       </c>
-      <c r="C204" s="19" t="s">
+      <c r="C204" s="4" t="s">
         <v>2323</v>
       </c>
-      <c r="D204" s="20" t="n">
+      <c r="D204" s="3" t="n">
         <v>1793</v>
       </c>
-      <c r="F204" s="18" t="s">
+      <c r="F204" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="25" t="n">
+      <c r="A205" s="9" t="n">
         <v>175</v>
       </c>
-      <c r="B205" s="26" t="s">
+      <c r="B205" s="10" t="s">
         <v>2324</v>
       </c>
-      <c r="C205" s="19" t="s">
+      <c r="C205" s="4" t="s">
         <v>2325</v>
       </c>
-      <c r="D205" s="20" t="n">
+      <c r="D205" s="3" t="n">
         <v>1794</v>
       </c>
-      <c r="F205" s="18" t="s">
+      <c r="F205" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="25" t="n">
+      <c r="A206" s="9" t="n">
         <v>176</v>
       </c>
-      <c r="B206" s="26" t="s">
+      <c r="B206" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C206" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F206" s="18" t="s">
+      <c r="C206" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F206" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="25" t="n">
+      <c r="A207" s="9" t="n">
         <v>177</v>
       </c>
-      <c r="B207" s="26" t="s">
+      <c r="B207" s="10" t="s">
         <v>2326</v>
       </c>
-      <c r="C207" s="19" t="s">
+      <c r="C207" s="4" t="s">
         <v>2327</v>
       </c>
-      <c r="D207" s="20" t="n">
+      <c r="D207" s="3" t="n">
         <v>1795</v>
       </c>
-      <c r="F207" s="18" t="s">
+      <c r="F207" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="25" t="n">
+      <c r="A208" s="9" t="n">
         <v>177</v>
       </c>
-      <c r="B208" s="26" t="s">
+      <c r="B208" s="10" t="s">
         <v>2326</v>
       </c>
-      <c r="C208" s="19" t="s">
+      <c r="C208" s="4" t="s">
         <v>2328</v>
       </c>
-      <c r="D208" s="20" t="n">
+      <c r="D208" s="3" t="n">
         <v>1796</v>
       </c>
-      <c r="F208" s="18" t="s">
+      <c r="F208" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="25" t="n">
+      <c r="A209" s="9" t="n">
         <v>178</v>
       </c>
-      <c r="B209" s="26" t="s">
+      <c r="B209" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C209" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F209" s="18" t="s">
+      <c r="C209" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F209" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="25" t="n">
+      <c r="A210" s="9" t="n">
         <v>179</v>
       </c>
-      <c r="B210" s="26" t="s">
+      <c r="B210" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C210" s="19" t="s">
+      <c r="C210" s="4" t="s">
         <v>2329</v>
       </c>
-      <c r="D210" s="20" t="n">
+      <c r="D210" s="3" t="n">
         <v>1797</v>
       </c>
-      <c r="F210" s="18" t="s">
+      <c r="F210" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="25" t="n">
+      <c r="A211" s="9" t="n">
         <v>179</v>
       </c>
-      <c r="B211" s="26" t="s">
+      <c r="B211" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C211" s="19" t="s">
+      <c r="C211" s="4" t="s">
         <v>2330</v>
       </c>
-      <c r="D211" s="20" t="n">
+      <c r="D211" s="3" t="n">
         <v>1798</v>
       </c>
-      <c r="F211" s="18" t="s">
+      <c r="F211" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="25" t="n">
+      <c r="A212" s="9" t="n">
         <v>179</v>
       </c>
-      <c r="B212" s="26" t="s">
+      <c r="B212" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C212" s="19" t="s">
+      <c r="C212" s="4" t="s">
         <v>2331</v>
       </c>
-      <c r="D212" s="20" t="n">
+      <c r="D212" s="3" t="n">
         <v>1799</v>
       </c>
-      <c r="F212" s="18" t="s">
+      <c r="F212" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="25" t="n">
+      <c r="A213" s="9" t="n">
         <v>180</v>
       </c>
-      <c r="B213" s="26" t="s">
+      <c r="B213" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C213" s="19" t="s">
+      <c r="C213" s="4" t="s">
         <v>2332</v>
       </c>
-      <c r="D213" s="20" t="n">
+      <c r="D213" s="3" t="n">
         <v>1800</v>
       </c>
-      <c r="F213" s="18" t="s">
+      <c r="F213" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="25" t="n">
+      <c r="A214" s="9" t="n">
         <v>181</v>
       </c>
-      <c r="B214" s="26" t="s">
+      <c r="B214" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C214" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F214" s="18" t="s">
+      <c r="C214" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F214" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="25" t="n">
+      <c r="A215" s="9" t="n">
         <v>182</v>
       </c>
-      <c r="B215" s="26" t="s">
+      <c r="B215" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C215" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F215" s="18" t="s">
+      <c r="C215" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F215" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="25" t="n">
+      <c r="A216" s="9" t="n">
         <v>183</v>
       </c>
-      <c r="B216" s="26" t="s">
+      <c r="B216" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C216" s="19" t="s">
+      <c r="C216" s="4" t="s">
         <v>2333</v>
       </c>
-      <c r="D216" s="20" t="n">
+      <c r="D216" s="3" t="n">
         <v>1801</v>
       </c>
-      <c r="F216" s="18" t="s">
+      <c r="F216" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="25" t="n">
+      <c r="A217" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="B217" s="26" t="s">
+      <c r="B217" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C217" s="19" t="s">
+      <c r="C217" s="4" t="s">
         <v>2334</v>
       </c>
-      <c r="D217" s="20" t="n">
+      <c r="D217" s="3" t="n">
         <v>1802</v>
       </c>
-      <c r="F217" s="18" t="s">
+      <c r="F217" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="25" t="n">
+      <c r="A218" s="9" t="n">
         <v>185</v>
       </c>
-      <c r="B218" s="26" t="s">
+      <c r="B218" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C218" s="19" t="s">
+      <c r="C218" s="4" t="s">
         <v>2335</v>
       </c>
-      <c r="D218" s="20" t="n">
+      <c r="D218" s="3" t="n">
         <v>1803</v>
       </c>
-      <c r="F218" s="18" t="s">
+      <c r="F218" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="25" t="n">
+      <c r="A219" s="9" t="n">
         <v>186</v>
       </c>
-      <c r="B219" s="26" t="s">
+      <c r="B219" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C219" s="19" t="s">
+      <c r="C219" s="4" t="s">
         <v>2336</v>
       </c>
-      <c r="D219" s="20" t="n">
+      <c r="D219" s="3" t="n">
         <v>1804</v>
       </c>
-      <c r="F219" s="18" t="s">
+      <c r="F219" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="25" t="n">
+      <c r="A220" s="9" t="n">
         <v>187</v>
       </c>
-      <c r="B220" s="26" t="s">
+      <c r="B220" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C220" s="19" t="s">
+      <c r="C220" s="4" t="s">
         <v>2337</v>
       </c>
-      <c r="D220" s="20" t="n">
+      <c r="D220" s="3" t="n">
         <v>1805</v>
       </c>
-      <c r="F220" s="18" t="s">
+      <c r="F220" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="25" t="n">
+      <c r="A221" s="9" t="n">
         <v>188</v>
       </c>
-      <c r="B221" s="26" t="s">
+      <c r="B221" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C221" s="19" t="s">
+      <c r="C221" s="4" t="s">
         <v>2338</v>
       </c>
-      <c r="D221" s="20" t="n">
+      <c r="D221" s="3" t="n">
         <v>1806</v>
       </c>
-      <c r="F221" s="18" t="s">
+      <c r="F221" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="25" t="n">
+      <c r="A222" s="9" t="n">
         <v>189</v>
       </c>
-      <c r="B222" s="26" t="s">
+      <c r="B222" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="C222" s="19" t="s">
+      <c r="C222" s="4" t="s">
         <v>2339</v>
       </c>
-      <c r="D222" s="20" t="n">
+      <c r="D222" s="3" t="n">
         <v>1807</v>
       </c>
-      <c r="F222" s="18" t="s">
+      <c r="F222" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="25" t="n">
+      <c r="A223" s="9" t="n">
         <v>189</v>
       </c>
-      <c r="B223" s="26" t="s">
+      <c r="B223" s="10" t="s">
         <v>2340</v>
       </c>
-      <c r="C223" s="19" t="s">
+      <c r="C223" s="4" t="s">
         <v>2341</v>
       </c>
-      <c r="D223" s="20" t="n">
+      <c r="D223" s="3" t="n">
         <v>1808</v>
       </c>
-      <c r="F223" s="18" t="s">
+      <c r="F223" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="25" t="n">
+      <c r="A224" s="9" t="n">
         <v>190</v>
       </c>
-      <c r="B224" s="26" t="s">
+      <c r="B224" s="10" t="s">
         <v>866</v>
       </c>
-      <c r="C224" s="19" t="s">
+      <c r="C224" s="4" t="s">
         <v>2342</v>
       </c>
-      <c r="D224" s="20" t="n">
+      <c r="D224" s="3" t="n">
         <v>1809</v>
       </c>
-      <c r="F224" s="18" t="s">
+      <c r="F224" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="25" t="n">
+      <c r="A225" s="9" t="n">
         <v>191</v>
       </c>
-      <c r="B225" s="26" t="s">
+      <c r="B225" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C225" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F225" s="18" t="s">
+      <c r="C225" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F225" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="25" t="n">
+      <c r="A226" s="9" t="n">
         <v>192</v>
       </c>
-      <c r="B226" s="26" t="s">
+      <c r="B226" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C226" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F226" s="18" t="s">
+      <c r="C226" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F226" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="25" t="n">
+      <c r="A227" s="9" t="n">
         <v>193</v>
       </c>
-      <c r="B227" s="26" t="s">
+      <c r="B227" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C227" s="19" t="s">
+      <c r="C227" s="4" t="s">
         <v>2343</v>
       </c>
-      <c r="D227" s="20" t="n">
+      <c r="D227" s="3" t="n">
         <v>1810</v>
       </c>
-      <c r="F227" s="18" t="s">
+      <c r="F227" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="25" t="n">
+      <c r="A228" s="9" t="n">
         <v>194</v>
       </c>
-      <c r="B228" s="26" t="s">
+      <c r="B228" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C228" s="19" t="s">
+      <c r="C228" s="4" t="s">
         <v>2344</v>
       </c>
-      <c r="D228" s="20" t="n">
+      <c r="D228" s="3" t="n">
         <v>1811</v>
       </c>
-      <c r="F228" s="18" t="s">
+      <c r="F228" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="25" t="n">
+      <c r="A229" s="9" t="n">
         <v>195</v>
       </c>
-      <c r="B229" s="18" t="s">
+      <c r="B229" s="2" t="s">
         <v>2345</v>
       </c>
-      <c r="C229" s="19" t="s">
+      <c r="C229" s="4" t="s">
         <v>2346</v>
       </c>
-      <c r="D229" s="20" t="n">
+      <c r="D229" s="3" t="n">
         <v>1812</v>
       </c>
-      <c r="F229" s="18" t="s">
+      <c r="F229" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="25" t="n">
+      <c r="A230" s="9" t="n">
         <v>196</v>
       </c>
-      <c r="B230" s="26" t="s">
+      <c r="B230" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C230" s="19" t="s">
+      <c r="C230" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="D230" s="20" t="n">
+      <c r="D230" s="3" t="n">
         <v>1813</v>
       </c>
-      <c r="F230" s="18" t="s">
+      <c r="F230" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="25" t="n">
+      <c r="A231" s="9" t="n">
         <v>197</v>
       </c>
-      <c r="B231" s="26" t="s">
+      <c r="B231" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C231" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F231" s="18" t="s">
+      <c r="C231" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F231" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="25" t="n">
+      <c r="A232" s="9" t="n">
         <v>198</v>
       </c>
-      <c r="B232" s="26" t="s">
+      <c r="B232" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C232" s="19" t="s">
+      <c r="C232" s="4" t="s">
         <v>2347</v>
       </c>
-      <c r="D232" s="20" t="n">
+      <c r="D232" s="3" t="n">
         <v>1814</v>
       </c>
-      <c r="F232" s="18" t="s">
+      <c r="F232" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="25" t="n">
+      <c r="A233" s="9" t="n">
         <v>199</v>
       </c>
-      <c r="B233" s="26" t="s">
+      <c r="B233" s="10" t="s">
         <v>2348</v>
       </c>
-      <c r="C233" s="19" t="s">
+      <c r="C233" s="4" t="s">
         <v>2349</v>
       </c>
-      <c r="D233" s="20" t="n">
+      <c r="D233" s="3" t="n">
         <v>1815</v>
       </c>
-      <c r="F233" s="18" t="s">
+      <c r="F233" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="25" t="n">
+      <c r="A234" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="B234" s="26" t="s">
+      <c r="B234" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C234" s="19" t="s">
+      <c r="C234" s="4" t="s">
         <v>2350</v>
       </c>
-      <c r="D234" s="20" t="n">
+      <c r="D234" s="3" t="n">
         <v>1816</v>
       </c>
-      <c r="F234" s="18" t="s">
+      <c r="F234" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="25" t="n">
+      <c r="A235" s="9" t="n">
         <v>201</v>
       </c>
-      <c r="B235" s="26" t="s">
+      <c r="B235" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C235" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F235" s="18" t="s">
+      <c r="C235" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="25" t="n">
+      <c r="A236" s="9" t="n">
         <v>202</v>
       </c>
-      <c r="B236" s="26" t="s">
+      <c r="B236" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C236" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F236" s="18" t="s">
+      <c r="C236" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F236" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="25" t="n">
+      <c r="A237" s="9" t="n">
         <v>203</v>
       </c>
-      <c r="B237" s="26" t="s">
+      <c r="B237" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C237" s="19" t="s">
+      <c r="C237" s="4" t="s">
         <v>2351</v>
       </c>
-      <c r="D237" s="20" t="n">
+      <c r="D237" s="3" t="n">
         <v>1817</v>
       </c>
-      <c r="F237" s="18" t="s">
+      <c r="F237" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="25" t="n">
+      <c r="A238" s="9" t="n">
         <v>204</v>
       </c>
-      <c r="B238" s="26" t="s">
+      <c r="B238" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C238" s="19" t="s">
+      <c r="C238" s="4" t="s">
         <v>2352</v>
       </c>
-      <c r="D238" s="20" t="n">
+      <c r="D238" s="3" t="n">
         <v>1818</v>
       </c>
-      <c r="F238" s="18" t="s">
+      <c r="F238" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="25" t="n">
+      <c r="A239" s="9" t="n">
         <v>205</v>
       </c>
-      <c r="B239" s="26" t="s">
+      <c r="B239" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C239" s="19" t="s">
+      <c r="C239" s="4" t="s">
         <v>2353</v>
       </c>
-      <c r="D239" s="20" t="n">
+      <c r="D239" s="3" t="n">
         <v>1819</v>
       </c>
-      <c r="F239" s="18" t="s">
+      <c r="F239" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="25" t="n">
+      <c r="A240" s="9" t="n">
         <v>206</v>
       </c>
-      <c r="B240" s="26" t="s">
+      <c r="B240" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C240" s="19" t="s">
+      <c r="C240" s="4" t="s">
         <v>2354</v>
       </c>
-      <c r="D240" s="20" t="n">
+      <c r="D240" s="3" t="n">
         <v>1820</v>
       </c>
-      <c r="F240" s="18" t="s">
+      <c r="F240" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="25" t="n">
+      <c r="A241" s="9" t="n">
         <v>207</v>
       </c>
-      <c r="B241" s="26" t="s">
+      <c r="B241" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C241" s="19" t="s">
+      <c r="C241" s="4" t="s">
         <v>2355</v>
       </c>
-      <c r="D241" s="20" t="n">
+      <c r="D241" s="3" t="n">
         <v>1821</v>
       </c>
-      <c r="F241" s="18" t="s">
+      <c r="F241" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="25" t="n">
+      <c r="A242" s="9" t="n">
         <v>208</v>
       </c>
-      <c r="B242" s="26" t="s">
+      <c r="B242" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="C242" s="19" t="s">
+      <c r="C242" s="4" t="s">
         <v>2356</v>
       </c>
-      <c r="D242" s="20" t="n">
+      <c r="D242" s="3" t="n">
         <v>1822</v>
       </c>
-      <c r="F242" s="18" t="s">
+      <c r="F242" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="25" t="n">
+      <c r="A243" s="9" t="n">
         <v>209</v>
       </c>
-      <c r="B243" s="26" t="s">
+      <c r="B243" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="C243" s="19" t="s">
+      <c r="C243" s="4" t="s">
         <v>2357</v>
       </c>
-      <c r="D243" s="20" t="n">
+      <c r="D243" s="3" t="n">
         <v>1823</v>
       </c>
-      <c r="F243" s="18" t="s">
+      <c r="F243" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
@@ -29690,8 +29617,8 @@
   </sheetPr>
   <dimension ref="A1:BL259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A236" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E260" activeCellId="0" sqref="E260"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G263" activeCellId="0" sqref="G263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29720,6 +29647,9 @@
       <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>450</v>
+      </c>
       <c r="BK1" s="2"/>
       <c r="BL1" s="2"/>
     </row>
@@ -29739,6 +29669,9 @@
       <c r="E2" s="2" t="n">
         <v>1824</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="n">
@@ -29752,6 +29685,9 @@
         <v>457</v>
       </c>
       <c r="E3" s="0"/>
+      <c r="G3" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="n">
@@ -29764,13 +29700,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>1825</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2360</v>
+        <v>2361</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29782,13 +29721,16 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="4" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>1826</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2362</v>
+        <v>2363</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29803,6 +29745,9 @@
         <v>457</v>
       </c>
       <c r="E6" s="0"/>
+      <c r="G6" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="n">
@@ -29817,6 +29762,9 @@
       <c r="D7" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="n">
@@ -29827,13 +29775,16 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="4" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1827</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>2364</v>
+        <v>2365</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29845,13 +29796,16 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="4" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>1828</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>2366</v>
+        <v>2367</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29863,13 +29817,16 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="4" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>1829</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>2368</v>
+        <v>2369</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29883,10 +29840,13 @@
         <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>1830</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29905,6 +29865,9 @@
       <c r="E12" s="2" t="n">
         <v>1831</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="n">
@@ -29917,10 +29880,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1832</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29934,10 +29900,13 @@
         <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>1833</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29951,10 +29920,13 @@
         <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>1834</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29968,10 +29940,13 @@
         <v>39</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1835</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29985,10 +29960,13 @@
         <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>1836</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30002,10 +29980,13 @@
         <v>43</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>1837</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30019,10 +30000,13 @@
         <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>1838</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30036,10 +30020,13 @@
         <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>1839</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30053,10 +30040,13 @@
         <v>50</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>1840</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30067,13 +30057,16 @@
         <v>52</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>1841</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30092,6 +30085,9 @@
       <c r="E23" s="2" t="n">
         <v>1842</v>
       </c>
+      <c r="G23" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="n">
@@ -30109,6 +30105,9 @@
       <c r="E24" s="2" t="n">
         <v>1843</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="n">
@@ -30121,10 +30120,13 @@
         <v>58</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>1844</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30138,10 +30140,13 @@
         <v>60</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>1845</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30155,10 +30160,13 @@
         <v>62</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>1846</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30170,10 +30178,13 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="4" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>1847</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30181,16 +30192,19 @@
         <v>23</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>1848</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30204,10 +30218,13 @@
         <v>66</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>1849</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30221,10 +30238,13 @@
         <v>68</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>1850</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30240,6 +30260,9 @@
       <c r="D32" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G32" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="15" t="n">
@@ -30257,6 +30280,9 @@
       <c r="E33" s="2" t="n">
         <v>1851</v>
       </c>
+      <c r="G33" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="n">
@@ -30269,10 +30295,13 @@
         <v>482</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>1852</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30286,10 +30315,13 @@
         <v>76</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>1853</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30308,6 +30340,9 @@
       <c r="E36" s="2" t="n">
         <v>1854</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="n">
@@ -30320,10 +30355,13 @@
         <v>80</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>1855</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30337,13 +30375,16 @@
         <v>82</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>1856</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>2393</v>
+        <v>2394</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30357,10 +30398,13 @@
         <v>84</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>1857</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30372,10 +30416,13 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="4" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>1858</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30387,10 +30434,13 @@
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="4" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>1859</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30404,10 +30454,13 @@
         <v>86</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>1860</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30415,16 +30468,19 @@
         <v>35</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>2399</v>
+      <c r="D43" s="4" t="s">
+        <v>2400</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>1861</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30438,10 +30494,13 @@
         <v>90</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>1862</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30453,10 +30512,13 @@
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="4" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>1863</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30468,10 +30530,13 @@
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="4" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>1864</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30485,10 +30550,13 @@
         <v>2177</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>1865</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30505,6 +30573,9 @@
         <v>457</v>
       </c>
       <c r="E48" s="0"/>
+      <c r="G48" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="n">
@@ -30520,6 +30591,9 @@
         <v>457</v>
       </c>
       <c r="E49" s="0"/>
+      <c r="G49" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="n">
@@ -30532,10 +30606,13 @@
         <v>99</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>1866</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30554,6 +30631,9 @@
       <c r="E51" s="2" t="n">
         <v>1867</v>
       </c>
+      <c r="G51" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="n">
@@ -30566,10 +30646,13 @@
         <v>104</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>1868</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30588,6 +30671,9 @@
       <c r="E53" s="2" t="n">
         <v>1869</v>
       </c>
+      <c r="G53" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="n">
@@ -30602,6 +30688,9 @@
       <c r="D54" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G54" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="n">
@@ -30614,10 +30703,13 @@
         <v>110</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>1870</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30631,10 +30723,13 @@
         <v>112</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>1871</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30645,13 +30740,16 @@
         <v>496</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>1872</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30665,10 +30763,13 @@
         <v>116</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>1873</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30676,16 +30777,19 @@
         <v>49</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>1874</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30693,16 +30797,19 @@
         <v>50</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>1875</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30716,10 +30823,13 @@
         <v>121</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>1876</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30733,10 +30843,13 @@
         <v>123</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>1877</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30748,10 +30861,13 @@
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="4" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>1878</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30768,6 +30884,9 @@
         <v>457</v>
       </c>
       <c r="E64" s="0"/>
+      <c r="G64" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="n">
@@ -30780,10 +30899,13 @@
         <v>127</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>1879</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30800,6 +30922,9 @@
         <v>457</v>
       </c>
       <c r="E66" s="0"/>
+      <c r="G66" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="n">
@@ -30814,6 +30939,9 @@
       <c r="D67" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G67" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="n">
@@ -30831,6 +30959,9 @@
       <c r="E68" s="2" t="n">
         <v>1880</v>
       </c>
+      <c r="G68" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="n">
@@ -30843,10 +30974,13 @@
         <v>135</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>1881</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30863,6 +30997,9 @@
         <v>457</v>
       </c>
       <c r="E70" s="0"/>
+      <c r="G70" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="n">
@@ -30877,6 +31014,9 @@
       <c r="D71" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G71" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="n">
@@ -30889,10 +31029,13 @@
         <v>141</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>1882</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30909,6 +31052,9 @@
         <v>457</v>
       </c>
       <c r="E73" s="0"/>
+      <c r="G73" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="n">
@@ -30921,6 +31067,9 @@
       <c r="D74" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G74" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="n">
@@ -30931,10 +31080,13 @@
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="4" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>1883</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30946,10 +31098,13 @@
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="4" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>1884</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30964,6 +31119,9 @@
         <v>457</v>
       </c>
       <c r="E77" s="0"/>
+      <c r="G77" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="n">
@@ -30976,10 +31134,13 @@
         <v>151</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>1885</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30993,10 +31154,13 @@
         <v>153</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>1886</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31008,10 +31172,13 @@
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="4" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>1887</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31023,10 +31190,13 @@
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="4" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>1888</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31040,10 +31210,13 @@
         <v>155</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>1889</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31055,10 +31228,13 @@
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="4" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>1890</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31072,10 +31248,13 @@
         <v>157</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>1891</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31083,16 +31262,19 @@
         <v>70</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>159</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>1892</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31109,6 +31291,9 @@
         <v>457</v>
       </c>
       <c r="E86" s="0"/>
+      <c r="G86" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="n">
@@ -31121,10 +31306,13 @@
         <v>163</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>1893</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31136,10 +31324,13 @@
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="4" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>1894</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31153,10 +31344,13 @@
         <v>165</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>1895</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31168,10 +31362,13 @@
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="4" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>1896</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31185,10 +31382,13 @@
         <v>167</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>1897</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31196,16 +31396,19 @@
         <v>75</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>169</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>1898</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31219,10 +31422,13 @@
         <v>171</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>1899</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31236,10 +31442,13 @@
         <v>173</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>1900</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31253,10 +31462,13 @@
         <v>176</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>1901</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31273,6 +31485,9 @@
         <v>457</v>
       </c>
       <c r="E96" s="0"/>
+      <c r="G96" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="15" t="n">
@@ -31287,6 +31502,9 @@
       <c r="D97" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G97" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="15" t="n">
@@ -31304,6 +31522,9 @@
       <c r="E98" s="2" t="n">
         <v>1902</v>
       </c>
+      <c r="G98" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="15" t="n">
@@ -31319,6 +31540,9 @@
         <v>457</v>
       </c>
       <c r="E99" s="0"/>
+      <c r="G99" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="15" t="n">
@@ -31336,6 +31560,9 @@
       <c r="E100" s="2" t="n">
         <v>1903</v>
       </c>
+      <c r="G100" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="15" t="n">
@@ -31348,10 +31575,13 @@
         <v>188</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>1904</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31370,6 +31600,9 @@
       <c r="E102" s="2" t="n">
         <v>1905</v>
       </c>
+      <c r="G102" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="15" t="n">
@@ -31387,6 +31620,9 @@
       <c r="E103" s="2" t="n">
         <v>1906</v>
       </c>
+      <c r="G103" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="n">
@@ -31402,6 +31638,9 @@
         <v>457</v>
       </c>
       <c r="E104" s="0"/>
+      <c r="G104" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="15" t="n">
@@ -31416,6 +31655,9 @@
       <c r="D105" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G105" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="15" t="n">
@@ -31430,6 +31672,9 @@
       <c r="D106" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G106" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="15" t="n">
@@ -31442,13 +31687,16 @@
         <v>200</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>1907</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>2444</v>
+        <v>2445</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31464,22 +31712,28 @@
       <c r="D108" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G108" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="n">
         <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>203</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>1908</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31487,14 +31741,17 @@
         <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="4" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>1909</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31502,14 +31759,17 @@
         <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="4" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>1910</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31517,16 +31777,19 @@
         <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>205</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>1911</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31534,16 +31797,19 @@
         <v>94</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>208</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>1912</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31559,6 +31825,9 @@
       <c r="D114" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G114" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="15" t="n">
@@ -31576,6 +31845,9 @@
       <c r="E115" s="2" t="n">
         <v>1913</v>
       </c>
+      <c r="G115" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="15" t="n">
@@ -31588,10 +31860,13 @@
         <v>214</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>1914</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31605,10 +31880,13 @@
         <v>216</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="E117" s="2" t="n">
         <v>1915</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31627,13 +31905,16 @@
       <c r="E118" s="2" t="n">
         <v>1916</v>
       </c>
+      <c r="G118" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="n">
         <v>100</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>220</v>
@@ -31643,6 +31924,9 @@
       </c>
       <c r="E119" s="2" t="n">
         <v>1917</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31656,10 +31940,13 @@
         <v>222</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="E120" s="2" t="n">
         <v>1918</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31673,10 +31960,13 @@
         <v>224</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="E121" s="2" t="n">
         <v>1919</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31690,10 +31980,13 @@
         <v>226</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>1920</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31710,6 +32003,9 @@
         <v>457</v>
       </c>
       <c r="E123" s="0"/>
+      <c r="G123" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="15" t="n">
@@ -31724,6 +32020,9 @@
       <c r="D124" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G124" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="15" t="n">
@@ -31738,6 +32037,9 @@
       <c r="D125" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G125" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="15" t="n">
@@ -31750,10 +32052,13 @@
         <v>235</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="E126" s="2" t="n">
         <v>1921</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31765,10 +32070,13 @@
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="4" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="E127" s="2" t="n">
         <v>1922</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31785,6 +32093,9 @@
         <v>457</v>
       </c>
       <c r="E128" s="0"/>
+      <c r="G128" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="15" t="n">
@@ -31797,10 +32108,13 @@
         <v>240</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="E129" s="2" t="n">
         <v>1923</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31815,6 +32129,9 @@
         <v>457</v>
       </c>
       <c r="E130" s="0"/>
+      <c r="G130" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="15" t="n">
@@ -31827,10 +32144,13 @@
         <v>243</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="E131" s="2" t="n">
         <v>1924</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31844,10 +32164,13 @@
         <v>245</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="E132" s="2" t="n">
         <v>1925</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31861,10 +32184,13 @@
         <v>248</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="E133" s="2" t="n">
         <v>1926</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31878,10 +32204,13 @@
         <v>250</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="E134" s="2" t="n">
         <v>1927</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31895,10 +32224,13 @@
         <v>252</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>1928</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31912,10 +32244,13 @@
         <v>254</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="E136" s="2" t="n">
         <v>1929</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31934,6 +32269,9 @@
       <c r="E137" s="2" t="n">
         <v>1930</v>
       </c>
+      <c r="G137" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="15" t="n">
@@ -31946,10 +32284,13 @@
         <v>258</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="E138" s="2" t="n">
         <v>1931</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31963,10 +32304,13 @@
         <v>260</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>1932</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31980,10 +32324,13 @@
         <v>262</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="E140" s="2" t="n">
         <v>1933</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31997,10 +32344,13 @@
         <v>264</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="E141" s="2" t="n">
         <v>1934</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32008,16 +32358,19 @@
         <v>122</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="C142" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="E142" s="2" t="n">
         <v>1935</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32025,16 +32378,19 @@
         <v>123</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>269</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="E143" s="2" t="n">
         <v>1936</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32042,14 +32398,17 @@
         <v>123</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="C144" s="11"/>
       <c r="D144" s="4" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="E144" s="2" t="n">
         <v>1937</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32066,6 +32425,9 @@
         <v>457</v>
       </c>
       <c r="E145" s="0"/>
+      <c r="G145" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="15" t="n">
@@ -32078,10 +32440,13 @@
         <v>274</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="E146" s="2" t="n">
         <v>1938</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32095,10 +32460,13 @@
         <v>276</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="E147" s="2" t="n">
         <v>1939</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32117,6 +32485,9 @@
       <c r="E148" s="2" t="n">
         <v>1940</v>
       </c>
+      <c r="G148" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="15" t="n">
@@ -32129,10 +32500,13 @@
         <v>280</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>1941</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32146,10 +32520,13 @@
         <v>282</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="E150" s="2" t="n">
         <v>1942</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32168,6 +32545,9 @@
       <c r="E151" s="2" t="n">
         <v>1943</v>
       </c>
+      <c r="G151" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="15" t="n">
@@ -32180,10 +32560,13 @@
         <v>286</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="E152" s="2" t="n">
         <v>1944</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32202,6 +32585,9 @@
       <c r="E153" s="2" t="n">
         <v>1945</v>
       </c>
+      <c r="G153" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="n">
@@ -32214,10 +32600,13 @@
         <v>291</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="E154" s="2" t="n">
         <v>1946</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32225,16 +32614,19 @@
         <v>134</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>293</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>1947</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32248,10 +32640,13 @@
         <v>295</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="E156" s="2" t="n">
         <v>1948</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32265,10 +32660,13 @@
         <v>297</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="E157" s="2" t="n">
         <v>1949</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32282,10 +32680,13 @@
         <v>299</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="E158" s="2" t="n">
         <v>1950</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32302,6 +32703,9 @@
         <v>457</v>
       </c>
       <c r="E159" s="0"/>
+      <c r="G159" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15" t="n">
@@ -32314,10 +32718,13 @@
         <v>303</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="E160" s="2" t="n">
         <v>1945</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32325,16 +32732,19 @@
         <v>140</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>807</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="E161" s="2" t="n">
         <v>1946</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32353,6 +32763,9 @@
       <c r="E162" s="2" t="n">
         <v>1947</v>
       </c>
+      <c r="G162" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="15" t="n">
@@ -32365,10 +32778,13 @@
         <v>310</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="E163" s="2" t="n">
         <v>1948</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32376,13 +32792,16 @@
         <v>143</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>312</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>2492</v>
+        <v>2493</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32390,11 +32809,14 @@
         <v>143</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="4" t="s">
-        <v>2493</v>
+        <v>2494</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32402,7 +32824,7 @@
         <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>314</v>
@@ -32412,6 +32834,9 @@
       </c>
       <c r="E166" s="2" t="n">
         <v>1949</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32425,10 +32850,13 @@
         <v>316</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="E167" s="2" t="n">
         <v>1950</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32442,10 +32870,13 @@
         <v>318</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="E168" s="2" t="n">
         <v>1951</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32459,10 +32890,13 @@
         <v>320</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="E169" s="2" t="n">
         <v>1952</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32476,10 +32910,13 @@
         <v>322</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="E170" s="2" t="n">
         <v>1953</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32491,10 +32928,13 @@
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="4" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="E171" s="2" t="n">
         <v>1954</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32508,10 +32948,13 @@
         <v>324</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="E172" s="2" t="n">
         <v>1955</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32523,10 +32966,13 @@
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="4" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="E173" s="2" t="n">
         <v>1956</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32534,16 +32980,19 @@
         <v>150</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>327</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E174" s="2" t="n">
         <v>1957</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32551,16 +33000,19 @@
         <v>151</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>328</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="E175" s="2" t="n">
         <v>1958</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32568,14 +33020,17 @@
         <v>151</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="4" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="E176" s="2" t="n">
         <v>1959</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32583,14 +33038,17 @@
         <v>151</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="C177" s="11"/>
       <c r="D177" s="4" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="E177" s="2" t="n">
         <v>1960</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32598,16 +33056,19 @@
         <v>152</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>330</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="E178" s="2" t="n">
         <v>1961</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32615,16 +33076,19 @@
         <v>153</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>332</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="E179" s="2" t="n">
         <v>1962</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32632,14 +33096,17 @@
         <v>153</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="4" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E180" s="2" t="n">
         <v>1963</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32647,16 +33114,19 @@
         <v>154</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>334</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="E181" s="2" t="n">
         <v>1964</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32670,10 +33140,13 @@
         <v>337</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="E182" s="2" t="n">
         <v>1965</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32687,10 +33160,13 @@
         <v>339</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="E183" s="2" t="n">
         <v>1966</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32704,10 +33180,13 @@
         <v>341</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="E184" s="2" t="n">
         <v>1967</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32721,10 +33200,13 @@
         <v>343</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="E185" s="2" t="n">
         <v>1968</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32738,10 +33220,13 @@
         <v>345</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="E186" s="2" t="n">
         <v>1969</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32755,10 +33240,13 @@
         <v>347</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="E187" s="2" t="n">
         <v>1970</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32772,10 +33260,13 @@
         <v>349</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="E188" s="2" t="n">
         <v>1971</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32789,10 +33280,13 @@
         <v>351</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E189" s="2" t="n">
         <v>1972</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32806,10 +33300,13 @@
         <v>353</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="E190" s="2" t="n">
         <v>1973</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32828,6 +33325,9 @@
       <c r="E191" s="2" t="n">
         <v>1974</v>
       </c>
+      <c r="G191" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="15" t="n">
@@ -32840,10 +33340,13 @@
         <v>357</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="E192" s="2" t="n">
         <v>1975</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32857,10 +33360,13 @@
         <v>359</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="E193" s="2" t="n">
         <v>1976</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32874,10 +33380,13 @@
         <v>362</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="E194" s="2" t="n">
         <v>1977</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32889,10 +33398,13 @@
       </c>
       <c r="C195" s="11"/>
       <c r="D195" s="4" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="E195" s="2" t="n">
         <v>1978</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32906,10 +33418,13 @@
         <v>364</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="E196" s="2" t="n">
         <v>1979</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32921,13 +33436,16 @@
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="4" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="E197" s="2" t="n">
         <v>1980</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>2527</v>
+        <v>2528</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32939,13 +33457,16 @@
       </c>
       <c r="C198" s="11"/>
       <c r="D198" s="4" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="E198" s="2" t="n">
         <v>1981</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>2527</v>
+        <v>2528</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32959,10 +33480,13 @@
         <v>366</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="E199" s="2" t="n">
         <v>1982</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32970,10 +33494,13 @@
       <c r="B200" s="10"/>
       <c r="C200" s="11"/>
       <c r="D200" s="4" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="E200" s="2" t="n">
         <v>1983</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32987,10 +33514,13 @@
         <v>368</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="E201" s="2" t="n">
         <v>1984</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32998,10 +33528,13 @@
       <c r="B202" s="10"/>
       <c r="C202" s="11"/>
       <c r="D202" s="4" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="E202" s="2" t="n">
         <v>1985</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33009,16 +33542,19 @@
         <v>171</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="C203" s="11" t="s">
         <v>370</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="E203" s="2" t="n">
         <v>1986</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33026,14 +33562,17 @@
         <v>171</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="C204" s="11"/>
       <c r="D204" s="4" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="E204" s="2" t="n">
         <v>1987</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33041,17 +33580,20 @@
         <v>171</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="C205" s="11"/>
       <c r="D205" s="4" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="E205" s="2" t="n">
         <v>1988</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>2537</v>
+        <v>2538</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33066,22 +33608,28 @@
         <v>457</v>
       </c>
       <c r="E206" s="0"/>
+      <c r="G206" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="15" t="n">
         <v>173</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="E207" s="2" t="n">
         <v>1989</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33089,14 +33637,17 @@
         <v>173</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="C208" s="11"/>
       <c r="D208" s="4" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="E208" s="2" t="n">
         <v>1990</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33104,14 +33655,17 @@
         <v>173</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="C209" s="11"/>
       <c r="D209" s="4" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="E209" s="2" t="n">
         <v>1991</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33126,22 +33680,28 @@
         <v>457</v>
       </c>
       <c r="E210" s="0"/>
+      <c r="G210" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="15" t="n">
         <v>175</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>2326</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="E211" s="2" t="n">
         <v>1992</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33155,22 +33715,28 @@
       <c r="D212" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G212" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="15" t="n">
         <v>177</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="C213" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="D213" s="19" t="s">
-        <v>2546</v>
+      <c r="D213" s="4" t="s">
+        <v>2547</v>
       </c>
       <c r="E213" s="2" t="n">
         <v>1993</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33178,14 +33744,17 @@
         <v>177</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="C214" s="11"/>
-      <c r="D214" s="19" t="s">
-        <v>2547</v>
+      <c r="D214" s="4" t="s">
+        <v>2548</v>
       </c>
       <c r="E214" s="2" t="n">
         <v>1994</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33193,16 +33762,19 @@
         <v>178</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>384</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="E215" s="2" t="n">
         <v>1995</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33210,14 +33782,17 @@
         <v>178</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="C216" s="11"/>
       <c r="D216" s="4" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="E216" s="2" t="n">
         <v>1996</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33225,14 +33800,17 @@
         <v>178</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="C217" s="11"/>
       <c r="D217" s="4" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="E217" s="2" t="n">
         <v>1997</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33240,16 +33818,19 @@
         <v>179</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="C218" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="D218" s="27" t="s">
-        <v>2553</v>
+      <c r="D218" s="17" t="s">
+        <v>2554</v>
       </c>
       <c r="E218" s="2" t="n">
         <v>1998</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33257,16 +33838,19 @@
         <v>180</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="C219" s="11" t="s">
         <v>388</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="E219" s="2" t="n">
         <v>1999</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33274,14 +33858,17 @@
         <v>180</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="C220" s="11"/>
       <c r="D220" s="4" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="E220" s="2" t="n">
         <v>2000</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33289,14 +33876,17 @@
         <v>180</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="C221" s="11"/>
       <c r="D221" s="4" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="E221" s="2" t="n">
         <v>2001</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33310,13 +33900,16 @@
         <v>390</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="E222" s="2" t="n">
         <v>2002</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>2559</v>
+        <v>2560</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33324,16 +33917,19 @@
         <v>182</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>392</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="E223" s="2" t="n">
         <v>2003</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33341,14 +33937,17 @@
         <v>182</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="C224" s="11"/>
       <c r="D224" s="0" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="E224" s="2" t="n">
         <v>2004</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33362,10 +33961,13 @@
         <v>394</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="E225" s="2" t="n">
         <v>2005</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33373,16 +33975,19 @@
         <v>184</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>396</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="E226" s="2" t="n">
         <v>2006</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33390,14 +33995,17 @@
         <v>184</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="C227" s="11"/>
       <c r="D227" s="4" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="E227" s="2" t="n">
         <v>2007</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33405,14 +34013,17 @@
         <v>184</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="C228" s="11"/>
       <c r="D228" s="4" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="E228" s="2" t="n">
         <v>2008</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33420,14 +34031,17 @@
         <v>184</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="C229" s="11"/>
       <c r="D229" s="4" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="E229" s="2" t="n">
         <v>2009</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33435,14 +34049,17 @@
         <v>184</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="C230" s="11"/>
       <c r="D230" s="4" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="E230" s="2" t="n">
         <v>2010</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33450,16 +34067,19 @@
         <v>185</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="C231" s="11" t="s">
         <v>398</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="E231" s="2" t="n">
         <v>2011</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33467,14 +34087,17 @@
         <v>185</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="C232" s="11"/>
       <c r="D232" s="4" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="E232" s="2" t="n">
         <v>2012</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33482,14 +34105,17 @@
         <v>185</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="C233" s="11"/>
       <c r="D233" s="4" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="E233" s="2" t="n">
         <v>2013</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33503,10 +34129,13 @@
         <v>400</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="E234" s="2" t="n">
         <v>2014</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33520,10 +34149,13 @@
         <v>402</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="E235" s="2" t="n">
         <v>2015</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33531,16 +34163,19 @@
         <v>188</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="C236" s="11" t="s">
         <v>404</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="E236" s="2" t="n">
         <v>2016</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33548,16 +34183,19 @@
         <v>189</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="C237" s="11" t="s">
         <v>406</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="E237" s="2" t="n">
         <v>2017</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33565,16 +34203,19 @@
         <v>190</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="E238" s="2" t="n">
         <v>2018</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33582,16 +34223,19 @@
         <v>191</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="C239" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="E239" s="2" t="n">
         <v>2019</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33599,14 +34243,17 @@
         <v>191</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="C240" s="11"/>
       <c r="D240" s="4" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="E240" s="2" t="n">
         <v>2020</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33614,14 +34261,17 @@
         <v>191</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="C241" s="11"/>
       <c r="D241" s="4" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="E241" s="2" t="n">
         <v>2021</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33638,6 +34288,9 @@
         <v>457</v>
       </c>
       <c r="E242" s="0"/>
+      <c r="G242" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="15" t="n">
@@ -33650,10 +34303,13 @@
         <v>415</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="E243" s="2" t="n">
         <v>2022</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33667,10 +34323,13 @@
         <v>417</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="E244" s="2" t="n">
         <v>2023</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33687,6 +34346,9 @@
         <v>457</v>
       </c>
       <c r="E245" s="0"/>
+      <c r="G245" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="15" t="n">
@@ -33704,6 +34366,9 @@
       <c r="E246" s="2" t="n">
         <v>2024</v>
       </c>
+      <c r="G246" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="15" t="n">
@@ -33714,10 +34379,13 @@
       </c>
       <c r="C247" s="11"/>
       <c r="D247" s="4" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="E247" s="2" t="n">
         <v>2025</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33729,10 +34397,13 @@
       </c>
       <c r="C248" s="11"/>
       <c r="D248" s="4" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="E248" s="2" t="n">
         <v>2026</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33747,6 +34418,9 @@
         <v>457</v>
       </c>
       <c r="E249" s="0"/>
+      <c r="G249" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="15" t="n">
@@ -33761,20 +34435,26 @@
       <c r="D250" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="G250" s="2" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="15" t="n">
         <v>199</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="C251" s="11"/>
       <c r="D251" s="4" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="E251" s="2" t="n">
         <v>2027</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33788,10 +34468,13 @@
         <v>434</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="E252" s="2" t="n">
         <v>2028</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33805,10 +34488,13 @@
         <v>436</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="E253" s="2" t="n">
         <v>2029</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33822,10 +34508,13 @@
         <v>438</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="E254" s="2" t="n">
         <v>2030</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33839,10 +34528,13 @@
         <v>440</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="E255" s="2" t="n">
         <v>2031</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33856,10 +34548,13 @@
         <v>442</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="E256" s="2" t="n">
         <v>2032</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33873,10 +34568,13 @@
         <v>444</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="E257" s="2" t="n">
         <v>2033</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33890,10 +34588,13 @@
         <v>446</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="E258" s="2" t="n">
         <v>2034</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33901,7 +34602,7 @@
         <v>207</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="C259" s="11" t="s">
         <v>448</v>
@@ -33911,6 +34612,9 @@
       </c>
       <c r="E259" s="2" t="n">
         <v>2035</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>2359</v>
       </c>
     </row>
   </sheetData>

--- a/Basic/list_collection.xlsx
+++ b/Basic/list_collection.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
@@ -25529,8 +25529,8 @@
   </sheetPr>
   <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B109" activeCellId="0" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29618,7 +29618,7 @@
   <dimension ref="A1:BL259"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G263" activeCellId="0" sqref="G263"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29667,7 +29667,7 @@
         <v>2358</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>2359</v>
@@ -29703,7 +29703,7 @@
         <v>2360</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>2361</v>
@@ -29724,7 +29724,7 @@
         <v>2362</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>2363</v>
@@ -29778,7 +29778,7 @@
         <v>2364</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2365</v>
@@ -29799,7 +29799,7 @@
         <v>2366</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2367</v>
@@ -29820,7 +29820,7 @@
         <v>2368</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2369</v>
@@ -29843,7 +29843,7 @@
         <v>2370</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>2359</v>
@@ -29863,7 +29863,7 @@
         <v>462</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>2359</v>
@@ -29883,7 +29883,7 @@
         <v>2371</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>2359</v>
@@ -29903,7 +29903,7 @@
         <v>2372</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1833</v>
+        <v>1837</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>2359</v>
@@ -29923,7 +29923,7 @@
         <v>2373</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1834</v>
+        <v>1838</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>2359</v>
@@ -29943,7 +29943,7 @@
         <v>2374</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>2359</v>
@@ -29963,7 +29963,7 @@
         <v>2375</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>2359</v>
@@ -29983,7 +29983,7 @@
         <v>2376</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1837</v>
+        <v>1841</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>2359</v>
@@ -30003,7 +30003,7 @@
         <v>2377</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>2359</v>
@@ -30023,7 +30023,7 @@
         <v>2378</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>2359</v>
@@ -30043,7 +30043,7 @@
         <v>2379</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>2359</v>
@@ -30063,7 +30063,7 @@
         <v>2381</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>2359</v>
@@ -30083,7 +30083,7 @@
         <v>901</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>2359</v>
@@ -30103,7 +30103,7 @@
         <v>592</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>2359</v>
@@ -30123,7 +30123,7 @@
         <v>2382</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>2359</v>
@@ -30143,7 +30143,7 @@
         <v>2383</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>2359</v>
@@ -30163,7 +30163,7 @@
         <v>2384</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>2359</v>
@@ -30181,7 +30181,7 @@
         <v>2385</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>2359</v>
@@ -30201,7 +30201,7 @@
         <v>2387</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>2359</v>
@@ -30221,7 +30221,7 @@
         <v>2388</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1849</v>
+        <v>1853</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>2359</v>
@@ -30241,7 +30241,7 @@
         <v>2389</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>2359</v>
@@ -30278,7 +30278,7 @@
         <v>481</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>2359</v>
@@ -30298,7 +30298,7 @@
         <v>2390</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>2359</v>
@@ -30318,7 +30318,7 @@
         <v>2391</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>2359</v>
@@ -30338,7 +30338,7 @@
         <v>1152</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>2359</v>
@@ -30358,7 +30358,7 @@
         <v>2392</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>2359</v>
@@ -30378,7 +30378,7 @@
         <v>2393</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>2394</v>
@@ -30401,7 +30401,7 @@
         <v>2395</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>2359</v>
@@ -30419,7 +30419,7 @@
         <v>2396</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>2359</v>
@@ -30437,7 +30437,7 @@
         <v>2397</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>2359</v>
@@ -30457,7 +30457,7 @@
         <v>2398</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>2359</v>
@@ -30477,7 +30477,7 @@
         <v>2400</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>2359</v>
@@ -30497,7 +30497,7 @@
         <v>2401</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>2359</v>
@@ -30515,7 +30515,7 @@
         <v>2402</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>2359</v>
@@ -30533,7 +30533,7 @@
         <v>2403</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>2359</v>
@@ -30553,7 +30553,7 @@
         <v>2404</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>2359</v>
@@ -30609,7 +30609,7 @@
         <v>2405</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>2359</v>
@@ -30629,7 +30629,7 @@
         <v>490</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>2359</v>
@@ -30649,7 +30649,7 @@
         <v>2406</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>2359</v>
@@ -30669,7 +30669,7 @@
         <v>492</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>2359</v>
@@ -30706,7 +30706,7 @@
         <v>2407</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>2359</v>
@@ -30726,7 +30726,7 @@
         <v>2408</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>2359</v>
@@ -30746,7 +30746,7 @@
         <v>2410</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>2359</v>
@@ -30766,7 +30766,7 @@
         <v>2411</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>2359</v>
@@ -30786,7 +30786,7 @@
         <v>2413</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>2359</v>
@@ -30806,7 +30806,7 @@
         <v>2415</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>2359</v>
@@ -30826,7 +30826,7 @@
         <v>2416</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>2359</v>
@@ -30846,7 +30846,7 @@
         <v>2417</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>2359</v>
@@ -30864,7 +30864,7 @@
         <v>2418</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>2359</v>
@@ -30902,7 +30902,7 @@
         <v>2419</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>2359</v>
@@ -30957,7 +30957,7 @@
         <v>505</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>2359</v>
@@ -30977,7 +30977,7 @@
         <v>2420</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>2359</v>
@@ -31032,7 +31032,7 @@
         <v>2421</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>2359</v>
@@ -31083,7 +31083,7 @@
         <v>2422</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>2359</v>
@@ -31101,7 +31101,7 @@
         <v>2423</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>2359</v>
@@ -31137,7 +31137,7 @@
         <v>2424</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>2359</v>
@@ -31157,7 +31157,7 @@
         <v>2425</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>2359</v>
@@ -31175,7 +31175,7 @@
         <v>2426</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>2359</v>
@@ -31193,7 +31193,7 @@
         <v>2427</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>2359</v>
@@ -31213,7 +31213,7 @@
         <v>2428</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>2359</v>
@@ -31231,7 +31231,7 @@
         <v>2429</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>2359</v>
@@ -31251,7 +31251,7 @@
         <v>2430</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>2359</v>
@@ -31271,7 +31271,7 @@
         <v>2432</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>2359</v>
@@ -31309,7 +31309,7 @@
         <v>2433</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>2359</v>
@@ -31327,7 +31327,7 @@
         <v>2434</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>2359</v>
@@ -31347,7 +31347,7 @@
         <v>2435</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>2359</v>
@@ -31365,7 +31365,7 @@
         <v>2436</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>2359</v>
@@ -31385,7 +31385,7 @@
         <v>2437</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>2359</v>
@@ -31405,7 +31405,7 @@
         <v>2439</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>2359</v>
@@ -31425,7 +31425,7 @@
         <v>2440</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>2359</v>
@@ -31445,7 +31445,7 @@
         <v>2441</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>2359</v>
@@ -31465,7 +31465,7 @@
         <v>2442</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>1901</v>
+        <v>1905</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>2359</v>
@@ -31520,7 +31520,7 @@
         <v>525</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>1902</v>
+        <v>1906</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>2359</v>
@@ -31558,7 +31558,7 @@
         <v>1675</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>2359</v>
@@ -31578,7 +31578,7 @@
         <v>2443</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>1904</v>
+        <v>1908</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>2359</v>
@@ -31598,7 +31598,7 @@
         <v>530</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>2359</v>
@@ -31618,7 +31618,7 @@
         <v>531</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>2359</v>
@@ -31690,7 +31690,7 @@
         <v>2444</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>2445</v>
@@ -31730,7 +31730,7 @@
         <v>2447</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>2359</v>
@@ -31748,7 +31748,7 @@
         <v>2448</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>2359</v>
@@ -31766,7 +31766,7 @@
         <v>2449</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>2359</v>
@@ -31786,7 +31786,7 @@
         <v>2451</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>2359</v>
@@ -31806,7 +31806,7 @@
         <v>2453</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>2359</v>
@@ -31843,7 +31843,7 @@
         <v>1901</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>2359</v>
@@ -31863,7 +31863,7 @@
         <v>2454</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>2359</v>
@@ -31883,7 +31883,7 @@
         <v>2379</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>2359</v>
@@ -31903,7 +31903,7 @@
         <v>543</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>2359</v>
@@ -31923,7 +31923,7 @@
         <v>1406</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>2359</v>
@@ -31943,7 +31943,7 @@
         <v>2456</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>2359</v>
@@ -31963,7 +31963,7 @@
         <v>2457</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>2359</v>
@@ -31983,7 +31983,7 @@
         <v>2458</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>2359</v>
@@ -32055,7 +32055,7 @@
         <v>2459</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>2359</v>
@@ -32073,7 +32073,7 @@
         <v>2460</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>2359</v>
@@ -32111,7 +32111,7 @@
         <v>2461</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>2359</v>
@@ -32147,7 +32147,7 @@
         <v>2462</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>2359</v>
@@ -32167,7 +32167,7 @@
         <v>2463</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>2359</v>
@@ -32187,7 +32187,7 @@
         <v>2464</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>2359</v>
@@ -32207,7 +32207,7 @@
         <v>2465</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>2359</v>
@@ -32227,7 +32227,7 @@
         <v>2466</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>2359</v>
@@ -32247,7 +32247,7 @@
         <v>2467</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>2359</v>
@@ -32267,7 +32267,7 @@
         <v>592</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>2359</v>
@@ -32287,7 +32287,7 @@
         <v>2468</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>2359</v>
@@ -32307,7 +32307,7 @@
         <v>2469</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>2359</v>
@@ -32327,7 +32327,7 @@
         <v>2470</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>2359</v>
@@ -32347,7 +32347,7 @@
         <v>2471</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>2359</v>
@@ -32367,7 +32367,7 @@
         <v>2473</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>2359</v>
@@ -32387,7 +32387,7 @@
         <v>2475</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>2359</v>
@@ -32405,7 +32405,7 @@
         <v>2476</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>2359</v>
@@ -32443,7 +32443,7 @@
         <v>2477</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>2359</v>
@@ -32463,7 +32463,7 @@
         <v>2478</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>2359</v>
@@ -32483,7 +32483,7 @@
         <v>1675</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>2359</v>
@@ -32503,7 +32503,7 @@
         <v>2479</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>2359</v>
@@ -32523,7 +32523,7 @@
         <v>2480</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>2359</v>
@@ -32543,7 +32543,7 @@
         <v>573</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>2359</v>
@@ -32563,7 +32563,7 @@
         <v>2481</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>2359</v>
@@ -32583,7 +32583,7 @@
         <v>959</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>2359</v>
@@ -32603,7 +32603,7 @@
         <v>2482</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>2359</v>
@@ -32623,7 +32623,7 @@
         <v>2484</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>2359</v>
@@ -32643,7 +32643,7 @@
         <v>2485</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>2359</v>
@@ -32663,7 +32663,7 @@
         <v>2486</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>2359</v>
@@ -32683,7 +32683,7 @@
         <v>2487</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>2359</v>
@@ -32721,7 +32721,7 @@
         <v>2488</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>2359</v>
@@ -32741,7 +32741,7 @@
         <v>2490</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>1946</v>
+        <v>1956</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>2359</v>
@@ -32761,7 +32761,7 @@
         <v>966</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>1947</v>
+        <v>1957</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>2359</v>
@@ -32781,7 +32781,7 @@
         <v>2491</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>1948</v>
+        <v>1958</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>2359</v>
@@ -32800,6 +32800,9 @@
       <c r="D164" s="4" t="s">
         <v>2493</v>
       </c>
+      <c r="E164" s="2" t="n">
+        <v>1959</v>
+      </c>
       <c r="G164" s="2" t="s">
         <v>2359</v>
       </c>
@@ -32815,6 +32818,9 @@
       <c r="D165" s="4" t="s">
         <v>2494</v>
       </c>
+      <c r="E165" s="2" t="n">
+        <v>1960</v>
+      </c>
       <c r="G165" s="2" t="s">
         <v>2359</v>
       </c>
@@ -32833,7 +32839,7 @@
         <v>583</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>1949</v>
+        <v>1961</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>2359</v>
@@ -32853,7 +32859,7 @@
         <v>2496</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>1950</v>
+        <v>1962</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>2359</v>
@@ -32873,7 +32879,7 @@
         <v>2469</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>1951</v>
+        <v>1963</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>2359</v>
@@ -32893,7 +32899,7 @@
         <v>2497</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>1952</v>
+        <v>1964</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>2359</v>
@@ -32913,7 +32919,7 @@
         <v>2498</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>1953</v>
+        <v>1965</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>2359</v>
@@ -32931,7 +32937,7 @@
         <v>2499</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>1954</v>
+        <v>1966</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>2359</v>
@@ -32951,7 +32957,7 @@
         <v>2500</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>1955</v>
+        <v>1967</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>2359</v>
@@ -32969,7 +32975,7 @@
         <v>2501</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>1956</v>
+        <v>1968</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>2359</v>
@@ -32989,7 +32995,7 @@
         <v>2503</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>1957</v>
+        <v>1969</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>2359</v>
@@ -33009,7 +33015,7 @@
         <v>2505</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>1958</v>
+        <v>1970</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>2359</v>
@@ -33027,7 +33033,7 @@
         <v>2506</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>1959</v>
+        <v>1971</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>2359</v>
@@ -33045,7 +33051,7 @@
         <v>2507</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>1960</v>
+        <v>1972</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>2359</v>
@@ -33065,7 +33071,7 @@
         <v>2509</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>1961</v>
+        <v>1973</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>2359</v>
@@ -33085,7 +33091,7 @@
         <v>2511</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>1962</v>
+        <v>1974</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>2359</v>
@@ -33103,7 +33109,7 @@
         <v>2512</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>1963</v>
+        <v>1975</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>2359</v>
@@ -33123,7 +33129,7 @@
         <v>2514</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>1964</v>
+        <v>1976</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>2359</v>
@@ -33143,7 +33149,7 @@
         <v>2515</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>1965</v>
+        <v>1977</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>2359</v>
@@ -33163,7 +33169,7 @@
         <v>2516</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>1966</v>
+        <v>1978</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>2359</v>
@@ -33183,7 +33189,7 @@
         <v>2517</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>1967</v>
+        <v>1979</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>2359</v>
@@ -33203,7 +33209,7 @@
         <v>2518</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>1968</v>
+        <v>1980</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>2359</v>
@@ -33223,7 +33229,7 @@
         <v>2519</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>1969</v>
+        <v>1981</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>2359</v>
@@ -33243,7 +33249,7 @@
         <v>2443</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>1970</v>
+        <v>1982</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>2359</v>
@@ -33263,7 +33269,7 @@
         <v>2520</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>1971</v>
+        <v>1983</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>2359</v>
@@ -33283,7 +33289,7 @@
         <v>2521</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>1972</v>
+        <v>1984</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>2359</v>
@@ -33303,7 +33309,7 @@
         <v>2515</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>1973</v>
+        <v>1985</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>2359</v>
@@ -33323,7 +33329,7 @@
         <v>1594</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>1974</v>
+        <v>1986</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>2359</v>
@@ -33343,7 +33349,7 @@
         <v>2522</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>1975</v>
+        <v>1987</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>2359</v>
@@ -33363,7 +33369,7 @@
         <v>2523</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>1976</v>
+        <v>1988</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>2359</v>
@@ -33383,7 +33389,7 @@
         <v>2524</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>1977</v>
+        <v>1989</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>2359</v>
@@ -33401,7 +33407,7 @@
         <v>2525</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>1978</v>
+        <v>1990</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>2359</v>
@@ -33421,7 +33427,7 @@
         <v>2526</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>1979</v>
+        <v>1991</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>2359</v>
@@ -33439,7 +33445,7 @@
         <v>2527</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>1980</v>
+        <v>1992</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>2528</v>
@@ -33460,7 +33466,7 @@
         <v>2529</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>1981</v>
+        <v>1993</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>2528</v>
@@ -33483,7 +33489,7 @@
         <v>2530</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>1982</v>
+        <v>1994</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>2359</v>
@@ -33497,7 +33503,7 @@
         <v>2531</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>1983</v>
+        <v>1995</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>2359</v>
@@ -33517,7 +33523,7 @@
         <v>2532</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>1984</v>
+        <v>1996</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>2359</v>
@@ -33531,7 +33537,7 @@
         <v>2533</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>1985</v>
+        <v>1997</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>2359</v>
@@ -33551,7 +33557,7 @@
         <v>2535</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>1986</v>
+        <v>1998</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>2359</v>
@@ -33569,7 +33575,7 @@
         <v>2536</v>
       </c>
       <c r="E204" s="2" t="n">
-        <v>1987</v>
+        <v>1999</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>2359</v>
@@ -33587,7 +33593,7 @@
         <v>2537</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>1988</v>
+        <v>2000</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>2538</v>
@@ -33626,7 +33632,7 @@
         <v>2541</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>1989</v>
+        <v>2001</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>2359</v>
@@ -33644,7 +33650,7 @@
         <v>2542</v>
       </c>
       <c r="E208" s="2" t="n">
-        <v>1990</v>
+        <v>2002</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>2359</v>
@@ -33662,7 +33668,7 @@
         <v>2543</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>1991</v>
+        <v>2003</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>2359</v>
@@ -33698,7 +33704,7 @@
         <v>2545</v>
       </c>
       <c r="E211" s="2" t="n">
-        <v>1992</v>
+        <v>2004</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>2359</v>
@@ -33733,7 +33739,7 @@
         <v>2547</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>1993</v>
+        <v>2005</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>2359</v>
@@ -33751,7 +33757,7 @@
         <v>2548</v>
       </c>
       <c r="E214" s="2" t="n">
-        <v>1994</v>
+        <v>2006</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>2359</v>
@@ -33771,7 +33777,7 @@
         <v>2550</v>
       </c>
       <c r="E215" s="2" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>2359</v>
@@ -33789,7 +33795,7 @@
         <v>2551</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>2359</v>
@@ -33807,7 +33813,7 @@
         <v>2552</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>2359</v>
@@ -33827,7 +33833,7 @@
         <v>2554</v>
       </c>
       <c r="E218" s="2" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>2359</v>
@@ -33847,7 +33853,7 @@
         <v>2556</v>
       </c>
       <c r="E219" s="2" t="n">
-        <v>1999</v>
+        <v>2011</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>2359</v>
@@ -33865,7 +33871,7 @@
         <v>2557</v>
       </c>
       <c r="E220" s="2" t="n">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>2359</v>
@@ -33883,7 +33889,7 @@
         <v>2558</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>2359</v>
@@ -33903,7 +33909,7 @@
         <v>2559</v>
       </c>
       <c r="E222" s="2" t="n">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>2560</v>
@@ -33926,7 +33932,7 @@
         <v>2562</v>
       </c>
       <c r="E223" s="2" t="n">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>2359</v>
@@ -33944,7 +33950,7 @@
         <v>2563</v>
       </c>
       <c r="E224" s="2" t="n">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>2359</v>
@@ -33964,7 +33970,7 @@
         <v>2564</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>2359</v>
@@ -33984,7 +33990,7 @@
         <v>2566</v>
       </c>
       <c r="E226" s="2" t="n">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>2359</v>
@@ -34002,7 +34008,7 @@
         <v>2567</v>
       </c>
       <c r="E227" s="2" t="n">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>2359</v>
@@ -34020,7 +34026,7 @@
         <v>2568</v>
       </c>
       <c r="E228" s="2" t="n">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>2359</v>
@@ -34038,7 +34044,7 @@
         <v>2569</v>
       </c>
       <c r="E229" s="2" t="n">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>2359</v>
@@ -34056,7 +34062,7 @@
         <v>2570</v>
       </c>
       <c r="E230" s="2" t="n">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>2359</v>
@@ -34076,7 +34082,7 @@
         <v>2572</v>
       </c>
       <c r="E231" s="2" t="n">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>2359</v>
@@ -34094,7 +34100,7 @@
         <v>2573</v>
       </c>
       <c r="E232" s="2" t="n">
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>2359</v>
@@ -34112,7 +34118,7 @@
         <v>2574</v>
       </c>
       <c r="E233" s="2" t="n">
-        <v>2013</v>
+        <v>2025</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>2359</v>
@@ -34132,7 +34138,7 @@
         <v>2575</v>
       </c>
       <c r="E234" s="2" t="n">
-        <v>2014</v>
+        <v>2026</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>2359</v>
@@ -34152,7 +34158,7 @@
         <v>2576</v>
       </c>
       <c r="E235" s="2" t="n">
-        <v>2015</v>
+        <v>2027</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>2359</v>
@@ -34172,7 +34178,7 @@
         <v>2578</v>
       </c>
       <c r="E236" s="2" t="n">
-        <v>2016</v>
+        <v>2028</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>2359</v>
@@ -34192,7 +34198,7 @@
         <v>2580</v>
       </c>
       <c r="E237" s="2" t="n">
-        <v>2017</v>
+        <v>2029</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>2359</v>
@@ -34212,7 +34218,7 @@
         <v>2583</v>
       </c>
       <c r="E238" s="2" t="n">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>2359</v>
@@ -34232,7 +34238,7 @@
         <v>2585</v>
       </c>
       <c r="E239" s="2" t="n">
-        <v>2019</v>
+        <v>2031</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>2359</v>
@@ -34250,7 +34256,7 @@
         <v>2586</v>
       </c>
       <c r="E240" s="2" t="n">
-        <v>2020</v>
+        <v>2032</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>2359</v>
@@ -34268,7 +34274,7 @@
         <v>2587</v>
       </c>
       <c r="E241" s="2" t="n">
-        <v>2021</v>
+        <v>2033</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>2359</v>
@@ -34306,7 +34312,7 @@
         <v>2588</v>
       </c>
       <c r="E243" s="2" t="n">
-        <v>2022</v>
+        <v>2034</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>2359</v>
@@ -34326,7 +34332,7 @@
         <v>2589</v>
       </c>
       <c r="E244" s="2" t="n">
-        <v>2023</v>
+        <v>2035</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>2359</v>
@@ -34364,7 +34370,7 @@
         <v>490</v>
       </c>
       <c r="E246" s="2" t="n">
-        <v>2024</v>
+        <v>2036</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>2359</v>
@@ -34382,7 +34388,7 @@
         <v>2590</v>
       </c>
       <c r="E247" s="2" t="n">
-        <v>2025</v>
+        <v>2037</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>2359</v>
@@ -34400,7 +34406,7 @@
         <v>2509</v>
       </c>
       <c r="E248" s="2" t="n">
-        <v>2026</v>
+        <v>2038</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>2359</v>
@@ -34451,7 +34457,7 @@
         <v>2592</v>
       </c>
       <c r="E251" s="2" t="n">
-        <v>2027</v>
+        <v>2039</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>2359</v>
@@ -34471,7 +34477,7 @@
         <v>2593</v>
       </c>
       <c r="E252" s="2" t="n">
-        <v>2028</v>
+        <v>2040</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>2359</v>
@@ -34491,7 +34497,7 @@
         <v>2594</v>
       </c>
       <c r="E253" s="2" t="n">
-        <v>2029</v>
+        <v>2041</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>2359</v>
@@ -34511,7 +34517,7 @@
         <v>2595</v>
       </c>
       <c r="E254" s="2" t="n">
-        <v>2030</v>
+        <v>2042</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>2359</v>
@@ -34531,7 +34537,7 @@
         <v>2596</v>
       </c>
       <c r="E255" s="2" t="n">
-        <v>2031</v>
+        <v>2043</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>2359</v>
@@ -34551,7 +34557,7 @@
         <v>2597</v>
       </c>
       <c r="E256" s="2" t="n">
-        <v>2032</v>
+        <v>2044</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>2359</v>
@@ -34571,7 +34577,7 @@
         <v>2598</v>
       </c>
       <c r="E257" s="2" t="n">
-        <v>2033</v>
+        <v>2045</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>2359</v>
@@ -34591,7 +34597,7 @@
         <v>2599</v>
       </c>
       <c r="E258" s="2" t="n">
-        <v>2034</v>
+        <v>2046</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>2359</v>
@@ -34611,7 +34617,7 @@
         <v>592</v>
       </c>
       <c r="E259" s="2" t="n">
-        <v>2035</v>
+        <v>2047</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>2359</v>
